--- a/database/industries/siman/silam/product/monthly_seprated.xlsx
+++ b/database/industries/siman/silam/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\silam\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC96739-3834-440D-8DD7-C54F13B54571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3264D150-29BE-4265-9BB2-5BAA596DC4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1573,20 +1573,20 @@
       <c r="AP11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR11" s="11">
+      <c r="AQ11" s="11">
         <v>322</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
       </c>
       <c r="AV11" s="11">
         <v>0</v>
@@ -1699,41 +1699,41 @@
       <c r="AE12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
+      <c r="AF12" s="13">
+        <v>68090</v>
       </c>
       <c r="AG12" s="13">
-        <v>68090</v>
+        <v>76516</v>
       </c>
       <c r="AH12" s="13">
-        <v>76516</v>
+        <v>49265</v>
       </c>
       <c r="AI12" s="13">
-        <v>49265</v>
+        <v>84410</v>
       </c>
       <c r="AJ12" s="13">
-        <v>84410</v>
+        <v>60140</v>
       </c>
       <c r="AK12" s="13">
-        <v>60140</v>
+        <v>56825</v>
       </c>
       <c r="AL12" s="13">
-        <v>56825</v>
+        <v>68280</v>
       </c>
       <c r="AM12" s="13">
-        <v>68280</v>
+        <v>59821</v>
       </c>
       <c r="AN12" s="13">
-        <v>59821</v>
+        <v>31111</v>
       </c>
       <c r="AO12" s="13">
-        <v>31111</v>
+        <v>16931</v>
       </c>
       <c r="AP12" s="13">
-        <v>16931</v>
-      </c>
-      <c r="AQ12" s="13">
         <v>2097</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR12" s="13" t="s">
         <v>58</v>
@@ -2038,53 +2038,53 @@
       <c r="AL14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM14" s="13" t="s">
-        <v>58</v>
+      <c r="AM14" s="13">
+        <v>4008</v>
       </c>
       <c r="AN14" s="13">
-        <v>4008</v>
+        <v>15323</v>
       </c>
       <c r="AO14" s="13">
-        <v>15323</v>
+        <v>27394</v>
       </c>
       <c r="AP14" s="13">
-        <v>27394</v>
+        <v>40798</v>
       </c>
       <c r="AQ14" s="13">
-        <v>40798</v>
+        <v>31126</v>
       </c>
       <c r="AR14" s="13">
-        <v>31126</v>
+        <v>28500</v>
       </c>
       <c r="AS14" s="13">
-        <v>28500</v>
+        <v>42596</v>
       </c>
       <c r="AT14" s="13">
-        <v>42596</v>
+        <v>40262</v>
       </c>
       <c r="AU14" s="13">
-        <v>40262</v>
+        <v>47614</v>
       </c>
       <c r="AV14" s="13">
-        <v>47614</v>
+        <v>41503</v>
       </c>
       <c r="AW14" s="13">
-        <v>41503</v>
+        <v>50167</v>
       </c>
       <c r="AX14" s="13">
-        <v>50167</v>
+        <v>49450</v>
       </c>
       <c r="AY14" s="13">
-        <v>49450</v>
+        <v>87250</v>
       </c>
       <c r="AZ14" s="13">
-        <v>87250</v>
+        <v>1660</v>
       </c>
       <c r="BA14" s="13">
-        <v>1660</v>
+        <v>46423</v>
       </c>
       <c r="BB14" s="13">
-        <v>46470</v>
+        <v>60827</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2175,73 +2175,73 @@
         <v>0</v>
       </c>
       <c r="AF15" s="15">
-        <v>0</v>
+        <v>68090</v>
       </c>
       <c r="AG15" s="15">
-        <v>68090</v>
+        <v>76516</v>
       </c>
       <c r="AH15" s="15">
-        <v>76516</v>
+        <v>49265</v>
       </c>
       <c r="AI15" s="15">
-        <v>49265</v>
+        <v>84410</v>
       </c>
       <c r="AJ15" s="15">
-        <v>84410</v>
+        <v>60140</v>
       </c>
       <c r="AK15" s="15">
-        <v>60140</v>
+        <v>56825</v>
       </c>
       <c r="AL15" s="15">
-        <v>56825</v>
+        <v>68280</v>
       </c>
       <c r="AM15" s="15">
-        <v>68280</v>
+        <v>63829</v>
       </c>
       <c r="AN15" s="15">
-        <v>63829</v>
+        <v>46434</v>
       </c>
       <c r="AO15" s="15">
-        <v>46434</v>
+        <v>44325</v>
       </c>
       <c r="AP15" s="15">
-        <v>44325</v>
+        <v>42895</v>
       </c>
       <c r="AQ15" s="15">
-        <v>42895</v>
+        <v>31448</v>
       </c>
       <c r="AR15" s="15">
-        <v>31448</v>
+        <v>28500</v>
       </c>
       <c r="AS15" s="15">
-        <v>28500</v>
+        <v>42596</v>
       </c>
       <c r="AT15" s="15">
-        <v>42596</v>
+        <v>40262</v>
       </c>
       <c r="AU15" s="15">
-        <v>40262</v>
+        <v>47614</v>
       </c>
       <c r="AV15" s="15">
-        <v>47614</v>
+        <v>41503</v>
       </c>
       <c r="AW15" s="15">
-        <v>41503</v>
+        <v>50167</v>
       </c>
       <c r="AX15" s="15">
-        <v>50167</v>
+        <v>49450</v>
       </c>
       <c r="AY15" s="15">
-        <v>49450</v>
+        <v>87250</v>
       </c>
       <c r="AZ15" s="15">
-        <v>87250</v>
+        <v>1660</v>
       </c>
       <c r="BA15" s="15">
-        <v>1660</v>
+        <v>46423</v>
       </c>
       <c r="BB15" s="15">
-        <v>46470</v>
+        <v>60827</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2423,41 +2423,41 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11">
+      <c r="AQ17" s="11">
         <v>79000</v>
       </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>45195</v>
       </c>
       <c r="AT17" s="11">
-        <v>45195</v>
+        <v>104365</v>
       </c>
       <c r="AU17" s="11">
-        <v>104365</v>
+        <v>120025</v>
       </c>
       <c r="AV17" s="11">
-        <v>120025</v>
+        <v>103100</v>
       </c>
       <c r="AW17" s="11">
-        <v>103100</v>
+        <v>81275</v>
       </c>
       <c r="AX17" s="11">
-        <v>81275</v>
+        <v>88915</v>
       </c>
       <c r="AY17" s="11">
-        <v>88915</v>
+        <v>41745</v>
       </c>
       <c r="AZ17" s="11">
-        <v>41745</v>
+        <v>127850</v>
       </c>
       <c r="BA17" s="11">
-        <v>127850</v>
+        <v>114330</v>
       </c>
       <c r="BB17" s="11">
-        <v>114330</v>
+        <v>112695</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2582,11 +2582,11 @@
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>0</v>
+      <c r="AQ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>58</v>
@@ -2609,11 +2609,11 @@
       <c r="AY18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ18" s="13" t="s">
-        <v>58</v>
+      <c r="AZ18" s="13">
+        <v>47</v>
       </c>
       <c r="BA18" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="13">
         <v>0</v>
@@ -2708,41 +2708,41 @@
       <c r="AE19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>58</v>
+      <c r="AF19" s="11">
+        <v>18072</v>
       </c>
       <c r="AG19" s="11">
-        <v>18072</v>
+        <v>21941</v>
       </c>
       <c r="AH19" s="11">
-        <v>21941</v>
+        <v>5046</v>
       </c>
       <c r="AI19" s="11">
-        <v>5046</v>
+        <v>119840</v>
       </c>
       <c r="AJ19" s="11">
-        <v>119840</v>
+        <v>98295</v>
       </c>
       <c r="AK19" s="11">
-        <v>98295</v>
+        <v>59755</v>
       </c>
       <c r="AL19" s="11">
-        <v>59755</v>
+        <v>63695</v>
       </c>
       <c r="AM19" s="11">
-        <v>63695</v>
+        <v>59075</v>
       </c>
       <c r="AN19" s="11">
-        <v>59075</v>
+        <v>98000</v>
       </c>
       <c r="AO19" s="11">
-        <v>98000</v>
+        <v>113705</v>
       </c>
       <c r="AP19" s="11">
-        <v>113705</v>
-      </c>
-      <c r="AQ19" s="11">
         <v>74570</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR19" s="11" t="s">
         <v>58</v>
@@ -2867,8 +2867,8 @@
       <c r="AE20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF20" s="13" t="s">
-        <v>58</v>
+      <c r="AF20" s="13">
+        <v>0</v>
       </c>
       <c r="AG20" s="13">
         <v>0</v>
@@ -2876,8 +2876,8 @@
       <c r="AH20" s="13">
         <v>0</v>
       </c>
-      <c r="AI20" s="13">
-        <v>0</v>
+      <c r="AI20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="13" t="s">
         <v>58</v>
@@ -3062,11 +3062,11 @@
       <c r="AQ21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS21" s="11">
+      <c r="AR21" s="11">
         <v>55920</v>
+      </c>
+      <c r="AS21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT21" s="11" t="s">
         <v>58</v>
@@ -3184,73 +3184,73 @@
         <v>0</v>
       </c>
       <c r="AF22" s="17">
-        <v>0</v>
+        <v>18072</v>
       </c>
       <c r="AG22" s="17">
-        <v>18072</v>
+        <v>21941</v>
       </c>
       <c r="AH22" s="17">
-        <v>21941</v>
+        <v>5046</v>
       </c>
       <c r="AI22" s="17">
-        <v>5046</v>
+        <v>119840</v>
       </c>
       <c r="AJ22" s="17">
-        <v>119840</v>
+        <v>98295</v>
       </c>
       <c r="AK22" s="17">
-        <v>98295</v>
+        <v>59755</v>
       </c>
       <c r="AL22" s="17">
-        <v>59755</v>
+        <v>63695</v>
       </c>
       <c r="AM22" s="17">
-        <v>63695</v>
+        <v>59075</v>
       </c>
       <c r="AN22" s="17">
-        <v>59075</v>
+        <v>98000</v>
       </c>
       <c r="AO22" s="17">
-        <v>98000</v>
+        <v>113705</v>
       </c>
       <c r="AP22" s="17">
-        <v>113705</v>
+        <v>74570</v>
       </c>
       <c r="AQ22" s="17">
-        <v>74570</v>
+        <v>79000</v>
       </c>
       <c r="AR22" s="17">
-        <v>79000</v>
+        <v>55920</v>
       </c>
       <c r="AS22" s="17">
-        <v>55920</v>
+        <v>45195</v>
       </c>
       <c r="AT22" s="17">
-        <v>45195</v>
+        <v>104365</v>
       </c>
       <c r="AU22" s="17">
-        <v>104365</v>
+        <v>120025</v>
       </c>
       <c r="AV22" s="17">
-        <v>120025</v>
+        <v>103100</v>
       </c>
       <c r="AW22" s="17">
-        <v>103100</v>
+        <v>81275</v>
       </c>
       <c r="AX22" s="17">
-        <v>81275</v>
+        <v>88915</v>
       </c>
       <c r="AY22" s="17">
-        <v>88915</v>
+        <v>41745</v>
       </c>
       <c r="AZ22" s="17">
-        <v>41745</v>
+        <v>127897</v>
       </c>
       <c r="BA22" s="17">
-        <v>127897</v>
+        <v>114330</v>
       </c>
       <c r="BB22" s="17">
-        <v>114330</v>
+        <v>112695</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3556,8 +3556,8 @@
       <c r="AE25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="17" t="s">
-        <v>58</v>
+      <c r="AF25" s="17">
+        <v>0</v>
       </c>
       <c r="AG25" s="17">
         <v>0</v>
@@ -3714,73 +3714,73 @@
         <v>0</v>
       </c>
       <c r="AF26" s="15">
-        <v>0</v>
+        <v>86162</v>
       </c>
       <c r="AG26" s="15">
-        <v>86162</v>
+        <v>98457</v>
       </c>
       <c r="AH26" s="15">
-        <v>98457</v>
+        <v>54311</v>
       </c>
       <c r="AI26" s="15">
-        <v>54311</v>
+        <v>204250</v>
       </c>
       <c r="AJ26" s="15">
-        <v>204250</v>
+        <v>158435</v>
       </c>
       <c r="AK26" s="15">
-        <v>158435</v>
+        <v>116580</v>
       </c>
       <c r="AL26" s="15">
-        <v>116580</v>
+        <v>131975</v>
       </c>
       <c r="AM26" s="15">
-        <v>131975</v>
+        <v>122904</v>
       </c>
       <c r="AN26" s="15">
-        <v>122904</v>
+        <v>144434</v>
       </c>
       <c r="AO26" s="15">
-        <v>144434</v>
+        <v>158030</v>
       </c>
       <c r="AP26" s="15">
-        <v>158030</v>
+        <v>117465</v>
       </c>
       <c r="AQ26" s="15">
-        <v>117465</v>
+        <v>110448</v>
       </c>
       <c r="AR26" s="15">
-        <v>110448</v>
+        <v>84420</v>
       </c>
       <c r="AS26" s="15">
-        <v>84420</v>
+        <v>87791</v>
       </c>
       <c r="AT26" s="15">
-        <v>87791</v>
+        <v>144627</v>
       </c>
       <c r="AU26" s="15">
-        <v>144627</v>
+        <v>167639</v>
       </c>
       <c r="AV26" s="15">
-        <v>167639</v>
+        <v>144603</v>
       </c>
       <c r="AW26" s="15">
-        <v>144603</v>
+        <v>131442</v>
       </c>
       <c r="AX26" s="15">
-        <v>131442</v>
+        <v>138365</v>
       </c>
       <c r="AY26" s="15">
-        <v>138365</v>
+        <v>128995</v>
       </c>
       <c r="AZ26" s="15">
-        <v>128995</v>
+        <v>129557</v>
       </c>
       <c r="BA26" s="15">
-        <v>129557</v>
+        <v>160753</v>
       </c>
       <c r="BB26" s="15">
-        <v>160800</v>
+        <v>173522</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4339,20 +4339,20 @@
       <c r="AP33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR33" s="11">
+      <c r="AQ33" s="11">
         <v>505</v>
       </c>
-      <c r="AS33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>0</v>
       </c>
       <c r="AV33" s="11">
         <v>0</v>
@@ -4465,41 +4465,41 @@
       <c r="AE34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>58</v>
+      <c r="AF34" s="13">
+        <v>64030</v>
       </c>
       <c r="AG34" s="13">
-        <v>64030</v>
+        <v>77040</v>
       </c>
       <c r="AH34" s="13">
-        <v>77040</v>
+        <v>60132</v>
       </c>
       <c r="AI34" s="13">
-        <v>60132</v>
+        <v>74626</v>
       </c>
       <c r="AJ34" s="13">
-        <v>74626</v>
+        <v>70923</v>
       </c>
       <c r="AK34" s="13">
-        <v>70923</v>
+        <v>56972</v>
       </c>
       <c r="AL34" s="13">
-        <v>56972</v>
+        <v>64678</v>
       </c>
       <c r="AM34" s="13">
-        <v>64678</v>
+        <v>48902</v>
       </c>
       <c r="AN34" s="13">
-        <v>48902</v>
+        <v>30862</v>
       </c>
       <c r="AO34" s="13">
-        <v>30862</v>
+        <v>16118</v>
       </c>
       <c r="AP34" s="13">
-        <v>16118</v>
-      </c>
-      <c r="AQ34" s="13">
         <v>2296</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR34" s="13" t="s">
         <v>58</v>
@@ -4804,53 +4804,53 @@
       <c r="AL36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM36" s="13" t="s">
-        <v>58</v>
+      <c r="AM36" s="13">
+        <v>3281</v>
       </c>
       <c r="AN36" s="13">
-        <v>3281</v>
+        <v>15145</v>
       </c>
       <c r="AO36" s="13">
-        <v>15145</v>
+        <v>27844</v>
       </c>
       <c r="AP36" s="13">
-        <v>27844</v>
+        <v>44631</v>
       </c>
       <c r="AQ36" s="13">
-        <v>44631</v>
+        <v>39281</v>
       </c>
       <c r="AR36" s="13">
-        <v>39281</v>
+        <v>29462</v>
       </c>
       <c r="AS36" s="13">
-        <v>29462</v>
+        <v>39907</v>
       </c>
       <c r="AT36" s="13">
-        <v>39907</v>
+        <v>37036</v>
       </c>
       <c r="AU36" s="13">
-        <v>37036</v>
+        <v>48319</v>
       </c>
       <c r="AV36" s="13">
-        <v>48319</v>
+        <v>49708</v>
       </c>
       <c r="AW36" s="13">
-        <v>49708</v>
+        <v>47261</v>
       </c>
       <c r="AX36" s="13">
-        <v>47261</v>
+        <v>48621</v>
       </c>
       <c r="AY36" s="13">
-        <v>48621</v>
+        <v>41881</v>
       </c>
       <c r="AZ36" s="13">
-        <v>41881</v>
+        <v>44411</v>
       </c>
       <c r="BA36" s="13">
-        <v>44411</v>
+        <v>56181</v>
       </c>
       <c r="BB36" s="13">
-        <v>56181</v>
+        <v>53891</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4941,73 +4941,73 @@
         <v>0</v>
       </c>
       <c r="AF37" s="15">
-        <v>0</v>
+        <v>64030</v>
       </c>
       <c r="AG37" s="15">
-        <v>64030</v>
+        <v>77040</v>
       </c>
       <c r="AH37" s="15">
-        <v>77040</v>
+        <v>60132</v>
       </c>
       <c r="AI37" s="15">
-        <v>60132</v>
+        <v>74626</v>
       </c>
       <c r="AJ37" s="15">
-        <v>74626</v>
+        <v>70923</v>
       </c>
       <c r="AK37" s="15">
-        <v>70923</v>
+        <v>56972</v>
       </c>
       <c r="AL37" s="15">
-        <v>56972</v>
+        <v>64678</v>
       </c>
       <c r="AM37" s="15">
-        <v>64678</v>
+        <v>52183</v>
       </c>
       <c r="AN37" s="15">
-        <v>52183</v>
+        <v>46007</v>
       </c>
       <c r="AO37" s="15">
-        <v>46007</v>
+        <v>43961</v>
       </c>
       <c r="AP37" s="15">
-        <v>43961</v>
+        <v>46927</v>
       </c>
       <c r="AQ37" s="15">
-        <v>46927</v>
+        <v>39786</v>
       </c>
       <c r="AR37" s="15">
-        <v>39786</v>
+        <v>29462</v>
       </c>
       <c r="AS37" s="15">
-        <v>29462</v>
+        <v>39907</v>
       </c>
       <c r="AT37" s="15">
-        <v>39907</v>
+        <v>37036</v>
       </c>
       <c r="AU37" s="15">
-        <v>37036</v>
+        <v>48319</v>
       </c>
       <c r="AV37" s="15">
-        <v>48319</v>
+        <v>49708</v>
       </c>
       <c r="AW37" s="15">
-        <v>49708</v>
+        <v>47261</v>
       </c>
       <c r="AX37" s="15">
-        <v>47261</v>
+        <v>48621</v>
       </c>
       <c r="AY37" s="15">
-        <v>48621</v>
+        <v>41881</v>
       </c>
       <c r="AZ37" s="15">
-        <v>41881</v>
+        <v>44411</v>
       </c>
       <c r="BA37" s="15">
-        <v>44411</v>
+        <v>56181</v>
       </c>
       <c r="BB37" s="15">
-        <v>56181</v>
+        <v>53891</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5189,41 +5189,41 @@
       <c r="AP39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR39" s="11">
+      <c r="AQ39" s="11">
         <v>50115</v>
       </c>
-      <c r="AS39" s="11" t="s">
-        <v>58</v>
+      <c r="AR39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>17186</v>
       </c>
       <c r="AT39" s="11">
-        <v>17186</v>
+        <v>44178</v>
       </c>
       <c r="AU39" s="11">
-        <v>44178</v>
+        <v>38806</v>
       </c>
       <c r="AV39" s="11">
-        <v>38806</v>
+        <v>71816</v>
       </c>
       <c r="AW39" s="11">
-        <v>71816</v>
+        <v>66424</v>
       </c>
       <c r="AX39" s="11">
-        <v>66424</v>
+        <v>37823</v>
       </c>
       <c r="AY39" s="11">
-        <v>37823</v>
+        <v>22583</v>
       </c>
       <c r="AZ39" s="11">
-        <v>22583</v>
+        <v>42404</v>
       </c>
       <c r="BA39" s="11">
-        <v>42404</v>
+        <v>39911</v>
       </c>
       <c r="BB39" s="11">
-        <v>39911</v>
+        <v>51712</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5348,11 +5348,11 @@
       <c r="AP40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>0</v>
+      <c r="AQ40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS40" s="13" t="s">
         <v>58</v>
@@ -5375,11 +5375,11 @@
       <c r="AY40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ40" s="13" t="s">
-        <v>58</v>
+      <c r="AZ40" s="13">
+        <v>47</v>
       </c>
       <c r="BA40" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="13">
         <v>0</v>
@@ -5474,41 +5474,41 @@
       <c r="AE41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF41" s="11" t="s">
-        <v>58</v>
+      <c r="AF41" s="11">
+        <v>18072</v>
       </c>
       <c r="AG41" s="11">
-        <v>18072</v>
+        <v>21941</v>
       </c>
       <c r="AH41" s="11">
-        <v>21941</v>
+        <v>5046</v>
       </c>
       <c r="AI41" s="11">
-        <v>5046</v>
+        <v>17304</v>
       </c>
       <c r="AJ41" s="11">
-        <v>17304</v>
+        <v>18163</v>
       </c>
       <c r="AK41" s="11">
-        <v>18163</v>
+        <v>29234</v>
       </c>
       <c r="AL41" s="11">
-        <v>29234</v>
+        <v>7057</v>
       </c>
       <c r="AM41" s="11">
-        <v>7057</v>
+        <v>14122</v>
       </c>
       <c r="AN41" s="11">
-        <v>14122</v>
+        <v>2727</v>
       </c>
       <c r="AO41" s="11">
-        <v>2727</v>
+        <v>31053</v>
       </c>
       <c r="AP41" s="11">
-        <v>31053</v>
-      </c>
-      <c r="AQ41" s="11">
         <v>33877</v>
+      </c>
+      <c r="AQ41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR41" s="11" t="s">
         <v>58</v>
@@ -5633,8 +5633,8 @@
       <c r="AE42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF42" s="13" t="s">
-        <v>58</v>
+      <c r="AF42" s="13">
+        <v>0</v>
       </c>
       <c r="AG42" s="13">
         <v>0</v>
@@ -5642,8 +5642,8 @@
       <c r="AH42" s="13">
         <v>0</v>
       </c>
-      <c r="AI42" s="13">
-        <v>0</v>
+      <c r="AI42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ42" s="13" t="s">
         <v>58</v>
@@ -5828,11 +5828,11 @@
       <c r="AQ43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS43" s="11">
+      <c r="AR43" s="11">
         <v>55833</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT43" s="11" t="s">
         <v>58</v>
@@ -5950,73 +5950,73 @@
         <v>0</v>
       </c>
       <c r="AF44" s="17">
-        <v>0</v>
+        <v>18072</v>
       </c>
       <c r="AG44" s="17">
-        <v>18072</v>
+        <v>21941</v>
       </c>
       <c r="AH44" s="17">
-        <v>21941</v>
+        <v>5046</v>
       </c>
       <c r="AI44" s="17">
-        <v>5046</v>
+        <v>17304</v>
       </c>
       <c r="AJ44" s="17">
-        <v>17304</v>
+        <v>18163</v>
       </c>
       <c r="AK44" s="17">
-        <v>18163</v>
+        <v>29234</v>
       </c>
       <c r="AL44" s="17">
-        <v>29234</v>
+        <v>7057</v>
       </c>
       <c r="AM44" s="17">
-        <v>7057</v>
+        <v>14122</v>
       </c>
       <c r="AN44" s="17">
-        <v>14122</v>
+        <v>2727</v>
       </c>
       <c r="AO44" s="17">
-        <v>2727</v>
+        <v>31053</v>
       </c>
       <c r="AP44" s="17">
-        <v>31053</v>
+        <v>33877</v>
       </c>
       <c r="AQ44" s="17">
-        <v>33877</v>
+        <v>50115</v>
       </c>
       <c r="AR44" s="17">
-        <v>50115</v>
+        <v>55833</v>
       </c>
       <c r="AS44" s="17">
-        <v>55833</v>
+        <v>17186</v>
       </c>
       <c r="AT44" s="17">
-        <v>17186</v>
+        <v>44178</v>
       </c>
       <c r="AU44" s="17">
-        <v>44178</v>
+        <v>38806</v>
       </c>
       <c r="AV44" s="17">
-        <v>38806</v>
+        <v>71816</v>
       </c>
       <c r="AW44" s="17">
-        <v>71816</v>
+        <v>66424</v>
       </c>
       <c r="AX44" s="17">
-        <v>66424</v>
+        <v>37823</v>
       </c>
       <c r="AY44" s="17">
-        <v>37823</v>
+        <v>22583</v>
       </c>
       <c r="AZ44" s="17">
-        <v>22583</v>
+        <v>42451</v>
       </c>
       <c r="BA44" s="17">
-        <v>42451</v>
+        <v>39911</v>
       </c>
       <c r="BB44" s="17">
-        <v>39911</v>
+        <v>51712</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6322,8 +6322,8 @@
       <c r="AE47" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF47" s="17" t="s">
-        <v>58</v>
+      <c r="AF47" s="17">
+        <v>0</v>
       </c>
       <c r="AG47" s="17">
         <v>0</v>
@@ -6536,8 +6536,8 @@
       <c r="AE49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF49" s="15" t="s">
-        <v>58</v>
+      <c r="AF49" s="15">
+        <v>0</v>
       </c>
       <c r="AG49" s="15">
         <v>0</v>
@@ -6694,73 +6694,73 @@
         <v>0</v>
       </c>
       <c r="AF50" s="17">
-        <v>0</v>
+        <v>82102</v>
       </c>
       <c r="AG50" s="17">
-        <v>82102</v>
+        <v>98982</v>
       </c>
       <c r="AH50" s="17">
-        <v>98982</v>
+        <v>65178</v>
       </c>
       <c r="AI50" s="17">
-        <v>65178</v>
+        <v>91930</v>
       </c>
       <c r="AJ50" s="17">
-        <v>91930</v>
+        <v>89086</v>
       </c>
       <c r="AK50" s="17">
-        <v>89086</v>
+        <v>86206</v>
       </c>
       <c r="AL50" s="17">
-        <v>86206</v>
+        <v>71735</v>
       </c>
       <c r="AM50" s="17">
-        <v>71735</v>
+        <v>66305</v>
       </c>
       <c r="AN50" s="17">
-        <v>66305</v>
+        <v>48734</v>
       </c>
       <c r="AO50" s="17">
-        <v>48734</v>
+        <v>75014</v>
       </c>
       <c r="AP50" s="17">
-        <v>75014</v>
+        <v>80804</v>
       </c>
       <c r="AQ50" s="17">
-        <v>80804</v>
+        <v>89901</v>
       </c>
       <c r="AR50" s="17">
-        <v>89901</v>
+        <v>85295</v>
       </c>
       <c r="AS50" s="17">
-        <v>85295</v>
+        <v>57093</v>
       </c>
       <c r="AT50" s="17">
-        <v>57093</v>
+        <v>81214</v>
       </c>
       <c r="AU50" s="17">
-        <v>81214</v>
+        <v>87125</v>
       </c>
       <c r="AV50" s="17">
-        <v>87125</v>
+        <v>121524</v>
       </c>
       <c r="AW50" s="17">
-        <v>121524</v>
+        <v>113685</v>
       </c>
       <c r="AX50" s="17">
-        <v>113685</v>
+        <v>86443</v>
       </c>
       <c r="AY50" s="17">
-        <v>86443</v>
+        <v>64464</v>
       </c>
       <c r="AZ50" s="17">
-        <v>64464</v>
+        <v>86862</v>
       </c>
       <c r="BA50" s="17">
-        <v>86862</v>
+        <v>96092</v>
       </c>
       <c r="BB50" s="17">
-        <v>96092</v>
+        <v>105603</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7319,20 +7319,20 @@
       <c r="AP57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR57" s="11">
+      <c r="AQ57" s="11">
         <v>5872</v>
       </c>
-      <c r="AS57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU57" s="11" t="s">
-        <v>58</v>
+      <c r="AR57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU57" s="11">
+        <v>0</v>
       </c>
       <c r="AV57" s="11">
         <v>0</v>
@@ -7445,41 +7445,41 @@
       <c r="AE58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF58" s="13" t="s">
-        <v>58</v>
+      <c r="AF58" s="13">
+        <v>175039</v>
       </c>
       <c r="AG58" s="13">
-        <v>175039</v>
+        <v>218869</v>
       </c>
       <c r="AH58" s="13">
-        <v>218869</v>
+        <v>178641</v>
       </c>
       <c r="AI58" s="13">
-        <v>178641</v>
+        <v>293114</v>
       </c>
       <c r="AJ58" s="13">
-        <v>293114</v>
+        <v>274285</v>
       </c>
       <c r="AK58" s="13">
-        <v>274285</v>
+        <v>224004</v>
       </c>
       <c r="AL58" s="13">
-        <v>224004</v>
+        <v>266713</v>
       </c>
       <c r="AM58" s="13">
-        <v>266713</v>
+        <v>197899</v>
       </c>
       <c r="AN58" s="13">
-        <v>197899</v>
+        <v>135034</v>
       </c>
       <c r="AO58" s="13">
-        <v>135034</v>
+        <v>67011</v>
       </c>
       <c r="AP58" s="13">
-        <v>67011</v>
-      </c>
-      <c r="AQ58" s="13">
         <v>8148</v>
+      </c>
+      <c r="AQ58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR58" s="13" t="s">
         <v>58</v>
@@ -7640,11 +7640,11 @@
       <c r="AQ59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS59" s="11">
-        <v>0</v>
+      <c r="AR59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT59" s="11" t="s">
         <v>58</v>
@@ -7784,53 +7784,53 @@
       <c r="AL60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM60" s="13" t="s">
-        <v>58</v>
+      <c r="AM60" s="13">
+        <v>15457</v>
       </c>
       <c r="AN60" s="13">
-        <v>15457</v>
+        <v>67191</v>
       </c>
       <c r="AO60" s="13">
-        <v>67191</v>
+        <v>121099</v>
       </c>
       <c r="AP60" s="13">
-        <v>121099</v>
+        <v>194307</v>
       </c>
       <c r="AQ60" s="13">
-        <v>194307</v>
+        <v>168349</v>
       </c>
       <c r="AR60" s="13">
-        <v>168349</v>
+        <v>134985</v>
       </c>
       <c r="AS60" s="13">
-        <v>134985</v>
+        <v>198420</v>
       </c>
       <c r="AT60" s="13">
-        <v>198420</v>
+        <v>194103</v>
       </c>
       <c r="AU60" s="13">
-        <v>194103</v>
+        <v>250593</v>
       </c>
       <c r="AV60" s="13">
-        <v>250593</v>
+        <v>265789</v>
       </c>
       <c r="AW60" s="13">
-        <v>265789</v>
+        <v>263522</v>
       </c>
       <c r="AX60" s="13">
-        <v>263522</v>
+        <v>263098</v>
       </c>
       <c r="AY60" s="13">
-        <v>263098</v>
+        <v>232455</v>
       </c>
       <c r="AZ60" s="13">
-        <v>232455</v>
+        <v>235714</v>
       </c>
       <c r="BA60" s="13">
-        <v>235714</v>
+        <v>301492</v>
       </c>
       <c r="BB60" s="13">
-        <v>301492</v>
+        <v>297689</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7921,73 +7921,73 @@
         <v>0</v>
       </c>
       <c r="AF61" s="15">
-        <v>0</v>
+        <v>175039</v>
       </c>
       <c r="AG61" s="15">
-        <v>175039</v>
+        <v>218869</v>
       </c>
       <c r="AH61" s="15">
-        <v>218869</v>
+        <v>178641</v>
       </c>
       <c r="AI61" s="15">
-        <v>178641</v>
+        <v>293114</v>
       </c>
       <c r="AJ61" s="15">
-        <v>293114</v>
+        <v>274285</v>
       </c>
       <c r="AK61" s="15">
-        <v>274285</v>
+        <v>224004</v>
       </c>
       <c r="AL61" s="15">
-        <v>224004</v>
+        <v>266713</v>
       </c>
       <c r="AM61" s="15">
-        <v>266713</v>
+        <v>213356</v>
       </c>
       <c r="AN61" s="15">
-        <v>213356</v>
+        <v>202225</v>
       </c>
       <c r="AO61" s="15">
-        <v>202225</v>
+        <v>188110</v>
       </c>
       <c r="AP61" s="15">
-        <v>188110</v>
+        <v>202455</v>
       </c>
       <c r="AQ61" s="15">
-        <v>202455</v>
+        <v>174221</v>
       </c>
       <c r="AR61" s="15">
-        <v>174221</v>
+        <v>134985</v>
       </c>
       <c r="AS61" s="15">
-        <v>134985</v>
+        <v>198420</v>
       </c>
       <c r="AT61" s="15">
-        <v>198420</v>
+        <v>194103</v>
       </c>
       <c r="AU61" s="15">
-        <v>194103</v>
+        <v>250593</v>
       </c>
       <c r="AV61" s="15">
-        <v>250593</v>
+        <v>265789</v>
       </c>
       <c r="AW61" s="15">
-        <v>265789</v>
+        <v>263522</v>
       </c>
       <c r="AX61" s="15">
-        <v>263522</v>
+        <v>263098</v>
       </c>
       <c r="AY61" s="15">
-        <v>263098</v>
+        <v>232455</v>
       </c>
       <c r="AZ61" s="15">
-        <v>232455</v>
+        <v>235714</v>
       </c>
       <c r="BA61" s="15">
-        <v>235714</v>
+        <v>301492</v>
       </c>
       <c r="BB61" s="15">
-        <v>301492</v>
+        <v>297689</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8169,41 +8169,41 @@
       <c r="AP63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR63" s="11">
+      <c r="AQ63" s="11">
         <v>225433</v>
       </c>
-      <c r="AS63" s="11" t="s">
-        <v>58</v>
+      <c r="AR63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS63" s="11">
+        <v>72628</v>
       </c>
       <c r="AT63" s="11">
-        <v>72628</v>
+        <v>236947</v>
       </c>
       <c r="AU63" s="11">
-        <v>236947</v>
+        <v>235724</v>
       </c>
       <c r="AV63" s="11">
-        <v>235724</v>
+        <v>446305</v>
       </c>
       <c r="AW63" s="11">
-        <v>446305</v>
+        <v>454222</v>
       </c>
       <c r="AX63" s="11">
-        <v>454222</v>
+        <v>265659</v>
       </c>
       <c r="AY63" s="11">
-        <v>265659</v>
+        <v>144469</v>
       </c>
       <c r="AZ63" s="11">
-        <v>144469</v>
+        <v>309872</v>
       </c>
       <c r="BA63" s="11">
-        <v>309872</v>
+        <v>334483</v>
       </c>
       <c r="BB63" s="11">
-        <v>334483</v>
+        <v>452242</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8328,11 +8328,11 @@
       <c r="AP64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR64" s="13">
-        <v>0</v>
+      <c r="AQ64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS64" s="13" t="s">
         <v>58</v>
@@ -8355,11 +8355,11 @@
       <c r="AY64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ64" s="13" t="s">
-        <v>58</v>
+      <c r="AZ64" s="13">
+        <v>443</v>
       </c>
       <c r="BA64" s="13">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="13">
         <v>0</v>
@@ -8454,41 +8454,41 @@
       <c r="AE65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF65" s="11" t="s">
-        <v>58</v>
+      <c r="AF65" s="11">
+        <v>42775</v>
       </c>
       <c r="AG65" s="11">
-        <v>42775</v>
+        <v>56061</v>
       </c>
       <c r="AH65" s="11">
-        <v>56061</v>
+        <v>14078</v>
       </c>
       <c r="AI65" s="11">
-        <v>14078</v>
+        <v>45922</v>
       </c>
       <c r="AJ65" s="11">
-        <v>45922</v>
+        <v>47505</v>
       </c>
       <c r="AK65" s="11">
-        <v>47505</v>
+        <v>105997</v>
       </c>
       <c r="AL65" s="11">
-        <v>105997</v>
+        <v>28139</v>
       </c>
       <c r="AM65" s="11">
-        <v>28139</v>
+        <v>63255</v>
       </c>
       <c r="AN65" s="11">
-        <v>63255</v>
+        <v>10835</v>
       </c>
       <c r="AO65" s="11">
-        <v>10835</v>
+        <v>133066</v>
       </c>
       <c r="AP65" s="11">
-        <v>133066</v>
-      </c>
-      <c r="AQ65" s="11">
         <v>164929</v>
+      </c>
+      <c r="AQ65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR65" s="11" t="s">
         <v>58</v>
@@ -8613,8 +8613,8 @@
       <c r="AE66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF66" s="13" t="s">
-        <v>58</v>
+      <c r="AF66" s="13">
+        <v>0</v>
       </c>
       <c r="AG66" s="13">
         <v>0</v>
@@ -8646,8 +8646,8 @@
       <c r="AP66" s="13">
         <v>0</v>
       </c>
-      <c r="AQ66" s="13">
-        <v>0</v>
+      <c r="AQ66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR66" s="13" t="s">
         <v>58</v>
@@ -8808,11 +8808,11 @@
       <c r="AQ67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS67" s="11">
+      <c r="AR67" s="11">
         <v>292946</v>
+      </c>
+      <c r="AS67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT67" s="11" t="s">
         <v>58</v>
@@ -8930,73 +8930,73 @@
         <v>0</v>
       </c>
       <c r="AF68" s="17">
-        <v>0</v>
+        <v>42775</v>
       </c>
       <c r="AG68" s="17">
-        <v>42775</v>
+        <v>56061</v>
       </c>
       <c r="AH68" s="17">
-        <v>56061</v>
+        <v>14078</v>
       </c>
       <c r="AI68" s="17">
-        <v>14078</v>
+        <v>45922</v>
       </c>
       <c r="AJ68" s="17">
-        <v>45922</v>
+        <v>47505</v>
       </c>
       <c r="AK68" s="17">
-        <v>47505</v>
+        <v>105997</v>
       </c>
       <c r="AL68" s="17">
-        <v>105997</v>
+        <v>28139</v>
       </c>
       <c r="AM68" s="17">
-        <v>28139</v>
+        <v>63255</v>
       </c>
       <c r="AN68" s="17">
-        <v>63255</v>
+        <v>10835</v>
       </c>
       <c r="AO68" s="17">
-        <v>10835</v>
+        <v>133066</v>
       </c>
       <c r="AP68" s="17">
-        <v>133066</v>
+        <v>164929</v>
       </c>
       <c r="AQ68" s="17">
-        <v>164929</v>
+        <v>225433</v>
       </c>
       <c r="AR68" s="17">
-        <v>225433</v>
+        <v>292946</v>
       </c>
       <c r="AS68" s="17">
-        <v>292946</v>
+        <v>72628</v>
       </c>
       <c r="AT68" s="17">
-        <v>72628</v>
+        <v>236947</v>
       </c>
       <c r="AU68" s="17">
-        <v>236947</v>
+        <v>235724</v>
       </c>
       <c r="AV68" s="17">
-        <v>235724</v>
+        <v>446305</v>
       </c>
       <c r="AW68" s="17">
-        <v>446305</v>
+        <v>454222</v>
       </c>
       <c r="AX68" s="17">
-        <v>454222</v>
+        <v>265659</v>
       </c>
       <c r="AY68" s="17">
-        <v>265659</v>
+        <v>144469</v>
       </c>
       <c r="AZ68" s="17">
-        <v>144469</v>
+        <v>310315</v>
       </c>
       <c r="BA68" s="17">
-        <v>310315</v>
+        <v>334483</v>
       </c>
       <c r="BB68" s="17">
-        <v>334483</v>
+        <v>452242</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9178,11 +9178,11 @@
       <c r="AP70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR70" s="11">
+      <c r="AQ70" s="11">
         <v>19000</v>
+      </c>
+      <c r="AR70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS70" s="11" t="s">
         <v>58</v>
@@ -9304,8 +9304,8 @@
       <c r="AE71" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF71" s="17" t="s">
-        <v>58</v>
+      <c r="AF71" s="17">
+        <v>0</v>
       </c>
       <c r="AG71" s="17">
         <v>0</v>
@@ -9338,10 +9338,10 @@
         <v>0</v>
       </c>
       <c r="AQ71" s="17">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="AR71" s="17">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="17">
         <v>0</v>
@@ -9520,8 +9520,8 @@
       <c r="AE73" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF73" s="15" t="s">
-        <v>58</v>
+      <c r="AF73" s="15">
+        <v>0</v>
       </c>
       <c r="AG73" s="15">
         <v>0</v>
@@ -9736,8 +9736,8 @@
       <c r="AE75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF75" s="11" t="s">
-        <v>58</v>
+      <c r="AF75" s="11">
+        <v>0</v>
       </c>
       <c r="AG75" s="11">
         <v>0</v>
@@ -9770,10 +9770,10 @@
         <v>0</v>
       </c>
       <c r="AQ75" s="11">
-        <v>0</v>
+        <v>-3845</v>
       </c>
       <c r="AR75" s="11">
-        <v>-3845</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="11">
         <v>0</v>
@@ -9894,73 +9894,73 @@
         <v>0</v>
       </c>
       <c r="AF76" s="17">
-        <v>0</v>
+        <v>217814</v>
       </c>
       <c r="AG76" s="17">
-        <v>217814</v>
+        <v>274930</v>
       </c>
       <c r="AH76" s="17">
-        <v>274930</v>
+        <v>192719</v>
       </c>
       <c r="AI76" s="17">
-        <v>192719</v>
+        <v>339036</v>
       </c>
       <c r="AJ76" s="17">
-        <v>339036</v>
+        <v>321790</v>
       </c>
       <c r="AK76" s="17">
-        <v>321790</v>
+        <v>330001</v>
       </c>
       <c r="AL76" s="17">
-        <v>330001</v>
+        <v>294852</v>
       </c>
       <c r="AM76" s="17">
-        <v>294852</v>
+        <v>276611</v>
       </c>
       <c r="AN76" s="17">
-        <v>276611</v>
+        <v>213060</v>
       </c>
       <c r="AO76" s="17">
-        <v>213060</v>
+        <v>321176</v>
       </c>
       <c r="AP76" s="17">
-        <v>321176</v>
+        <v>367384</v>
       </c>
       <c r="AQ76" s="17">
-        <v>367384</v>
+        <v>414809</v>
       </c>
       <c r="AR76" s="17">
-        <v>414809</v>
+        <v>427931</v>
       </c>
       <c r="AS76" s="17">
-        <v>427931</v>
+        <v>271048</v>
       </c>
       <c r="AT76" s="17">
-        <v>271048</v>
+        <v>431050</v>
       </c>
       <c r="AU76" s="17">
-        <v>431050</v>
+        <v>486317</v>
       </c>
       <c r="AV76" s="17">
-        <v>486317</v>
+        <v>712094</v>
       </c>
       <c r="AW76" s="17">
-        <v>712094</v>
+        <v>717744</v>
       </c>
       <c r="AX76" s="17">
-        <v>717744</v>
+        <v>528757</v>
       </c>
       <c r="AY76" s="17">
-        <v>528757</v>
+        <v>376924</v>
       </c>
       <c r="AZ76" s="17">
-        <v>376924</v>
+        <v>546029</v>
       </c>
       <c r="BA76" s="17">
-        <v>546029</v>
+        <v>635975</v>
       </c>
       <c r="BB76" s="17">
-        <v>635975</v>
+        <v>749931</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10519,11 +10519,11 @@
       <c r="AP83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR83" s="11">
+      <c r="AQ83" s="11">
         <v>11627723</v>
+      </c>
+      <c r="AR83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS83" s="11" t="s">
         <v>58</v>
@@ -10645,41 +10645,41 @@
       <c r="AE84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF84" s="13" t="s">
-        <v>58</v>
+      <c r="AF84" s="13">
+        <v>2733691</v>
       </c>
       <c r="AG84" s="13">
-        <v>2733691</v>
+        <v>2840968</v>
       </c>
       <c r="AH84" s="13">
-        <v>2840968</v>
+        <v>2970814</v>
       </c>
       <c r="AI84" s="13">
-        <v>2970814</v>
+        <v>3927773</v>
       </c>
       <c r="AJ84" s="13">
-        <v>3927773</v>
+        <v>3867363</v>
       </c>
       <c r="AK84" s="13">
-        <v>3867363</v>
+        <v>3931861</v>
       </c>
       <c r="AL84" s="13">
-        <v>3931861</v>
+        <v>4123705</v>
       </c>
       <c r="AM84" s="13">
-        <v>4123705</v>
+        <v>4046844</v>
       </c>
       <c r="AN84" s="13">
-        <v>4046844</v>
+        <v>4375413</v>
       </c>
       <c r="AO84" s="13">
-        <v>4375413</v>
+        <v>4157583</v>
       </c>
       <c r="AP84" s="13">
-        <v>4157583</v>
-      </c>
-      <c r="AQ84" s="13">
         <v>3548780</v>
+      </c>
+      <c r="AQ84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR84" s="13" t="s">
         <v>58</v>
@@ -10825,53 +10825,53 @@
       <c r="AL85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM85" s="11" t="s">
-        <v>58</v>
+      <c r="AM85" s="11">
+        <v>4711667</v>
       </c>
       <c r="AN85" s="11">
-        <v>4711667</v>
+        <v>4436514</v>
       </c>
       <c r="AO85" s="11">
-        <v>4436514</v>
+        <v>4349253</v>
       </c>
       <c r="AP85" s="11">
-        <v>4349253</v>
+        <v>4353675</v>
       </c>
       <c r="AQ85" s="11">
-        <v>4353675</v>
+        <v>4285762</v>
       </c>
       <c r="AR85" s="11">
-        <v>4285762</v>
+        <v>4581665</v>
       </c>
       <c r="AS85" s="11">
-        <v>4581665</v>
+        <v>4963447</v>
       </c>
       <c r="AT85" s="11">
-        <v>4963447</v>
+        <v>5240928</v>
       </c>
       <c r="AU85" s="11">
-        <v>5240928</v>
+        <v>5186221</v>
       </c>
       <c r="AV85" s="11">
-        <v>5186221</v>
+        <v>5346979</v>
       </c>
       <c r="AW85" s="11">
-        <v>5346979</v>
+        <v>5575887</v>
       </c>
       <c r="AX85" s="11">
-        <v>5575887</v>
+        <v>5411245</v>
       </c>
       <c r="AY85" s="11">
-        <v>5411245</v>
+        <v>5550369</v>
       </c>
       <c r="AZ85" s="11">
-        <v>5550369</v>
+        <v>5315890</v>
       </c>
       <c r="BA85" s="11">
-        <v>5315890</v>
+        <v>5366441</v>
       </c>
       <c r="BB85" s="11">
-        <v>5366441</v>
+        <v>5523909</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11053,41 +11053,41 @@
       <c r="AP87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR87" s="11">
+      <c r="AQ87" s="11">
         <v>4498314</v>
       </c>
-      <c r="AS87" s="11" t="s">
-        <v>58</v>
+      <c r="AR87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS87" s="11">
+        <v>3958763</v>
       </c>
       <c r="AT87" s="11">
-        <v>3958763</v>
+        <v>5363461</v>
       </c>
       <c r="AU87" s="11">
-        <v>5363461</v>
+        <v>6074421</v>
       </c>
       <c r="AV87" s="11">
-        <v>6074421</v>
+        <v>6212977</v>
       </c>
       <c r="AW87" s="11">
-        <v>6212977</v>
+        <v>6838221</v>
       </c>
       <c r="AX87" s="11">
-        <v>6838221</v>
+        <v>7023774</v>
       </c>
       <c r="AY87" s="11">
-        <v>7023774</v>
+        <v>6397246</v>
       </c>
       <c r="AZ87" s="11">
-        <v>6397246</v>
+        <v>7307612</v>
       </c>
       <c r="BA87" s="11">
-        <v>7307612</v>
+        <v>8380722</v>
       </c>
       <c r="BB87" s="11">
-        <v>8380722</v>
+        <v>8745469</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11239,11 +11239,11 @@
       <c r="AY88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ88" s="13" t="s">
-        <v>58</v>
+      <c r="AZ88" s="13">
+        <v>9425532</v>
       </c>
       <c r="BA88" s="13">
-        <v>9425532</v>
+        <v>0</v>
       </c>
       <c r="BB88" s="13" t="s">
         <v>58</v>
@@ -11338,41 +11338,41 @@
       <c r="AE89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF89" s="11" t="s">
-        <v>58</v>
+      <c r="AF89" s="11">
+        <v>2366955</v>
       </c>
       <c r="AG89" s="11">
-        <v>2366955</v>
+        <v>2555052</v>
       </c>
       <c r="AH89" s="11">
-        <v>2555052</v>
+        <v>2789933</v>
       </c>
       <c r="AI89" s="11">
-        <v>2789933</v>
+        <v>2653770</v>
       </c>
       <c r="AJ89" s="11">
-        <v>2653770</v>
+        <v>2615482</v>
       </c>
       <c r="AK89" s="11">
-        <v>2615482</v>
+        <v>3625812</v>
       </c>
       <c r="AL89" s="11">
-        <v>3625812</v>
+        <v>3987388</v>
       </c>
       <c r="AM89" s="11">
-        <v>3987388</v>
+        <v>4479026</v>
       </c>
       <c r="AN89" s="11">
-        <v>4479026</v>
+        <v>3973231</v>
       </c>
       <c r="AO89" s="11">
-        <v>3973231</v>
+        <v>4285125</v>
       </c>
       <c r="AP89" s="11">
-        <v>4285125</v>
-      </c>
-      <c r="AQ89" s="11">
         <v>4868465</v>
+      </c>
+      <c r="AQ89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR89" s="11" t="s">
         <v>58</v>
@@ -11533,11 +11533,11 @@
       <c r="AQ90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS90" s="13">
+      <c r="AR90" s="13">
         <v>5246825</v>
+      </c>
+      <c r="AS90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT90" s="13" t="s">
         <v>58</v>
@@ -11746,11 +11746,11 @@
       <c r="AP92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR92" s="11">
-        <v>0</v>
+      <c r="AQ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS92" s="11" t="s">
         <v>58</v>

--- a/database/industries/siman/silam/product/monthly_seprated.xlsx
+++ b/database/industries/siman/silam/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\silam\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3264D150-29BE-4265-9BB2-5BAA596DC4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47F0FF4-BF3E-46B1-A8C1-E3F532C517C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیلام-سیمان‌ ایلام‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 12 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -784,12 +784,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1567,14 +1567,14 @@
       <c r="AN11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>58</v>
+      <c r="AO11" s="11">
+        <v>322</v>
       </c>
       <c r="AP11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ11" s="11">
-        <v>322</v>
+      <c r="AQ11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR11" s="11" t="s">
         <v>58</v>
@@ -1582,8 +1582,8 @@
       <c r="AS11" s="11">
         <v>0</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>58</v>
+      <c r="AT11" s="11">
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
         <v>0</v>
@@ -1606,11 +1606,11 @@
       <c r="BA11" s="11">
         <v>0</v>
       </c>
-      <c r="BB11" s="11">
-        <v>0</v>
+      <c r="BB11" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1693,45 +1693,45 @@
       <c r="AC12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
+      <c r="AD12" s="13">
+        <v>68090</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>76516</v>
       </c>
       <c r="AF12" s="13">
-        <v>68090</v>
+        <v>49265</v>
       </c>
       <c r="AG12" s="13">
-        <v>76516</v>
+        <v>84410</v>
       </c>
       <c r="AH12" s="13">
-        <v>49265</v>
+        <v>60140</v>
       </c>
       <c r="AI12" s="13">
-        <v>84410</v>
+        <v>56825</v>
       </c>
       <c r="AJ12" s="13">
-        <v>60140</v>
+        <v>68280</v>
       </c>
       <c r="AK12" s="13">
-        <v>56825</v>
+        <v>59821</v>
       </c>
       <c r="AL12" s="13">
-        <v>68280</v>
+        <v>31111</v>
       </c>
       <c r="AM12" s="13">
-        <v>59821</v>
+        <v>16931</v>
       </c>
       <c r="AN12" s="13">
-        <v>31111</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>16931</v>
-      </c>
-      <c r="AP12" s="13">
         <v>2097</v>
       </c>
+      <c r="AO12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2032,62 +2032,62 @@
       <c r="AJ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL14" s="13" t="s">
-        <v>58</v>
+      <c r="AK14" s="13">
+        <v>4008</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>15323</v>
       </c>
       <c r="AM14" s="13">
-        <v>4008</v>
+        <v>27394</v>
       </c>
       <c r="AN14" s="13">
-        <v>15323</v>
+        <v>40798</v>
       </c>
       <c r="AO14" s="13">
-        <v>27394</v>
+        <v>31126</v>
       </c>
       <c r="AP14" s="13">
-        <v>40798</v>
+        <v>28500</v>
       </c>
       <c r="AQ14" s="13">
-        <v>31126</v>
+        <v>42071</v>
       </c>
       <c r="AR14" s="13">
-        <v>28500</v>
+        <v>40262</v>
       </c>
       <c r="AS14" s="13">
-        <v>42596</v>
+        <v>47614</v>
       </c>
       <c r="AT14" s="13">
-        <v>40262</v>
+        <v>41503</v>
       </c>
       <c r="AU14" s="13">
-        <v>47614</v>
+        <v>50167</v>
       </c>
       <c r="AV14" s="13">
-        <v>41503</v>
+        <v>49450</v>
       </c>
       <c r="AW14" s="13">
-        <v>50167</v>
+        <v>87250</v>
       </c>
       <c r="AX14" s="13">
-        <v>49450</v>
+        <v>47118</v>
       </c>
       <c r="AY14" s="13">
-        <v>87250</v>
+        <v>46470</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1660</v>
+        <v>60827</v>
       </c>
       <c r="BA14" s="13">
-        <v>46423</v>
+        <v>45602</v>
       </c>
       <c r="BB14" s="13">
-        <v>60827</v>
+        <v>53230</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2169,82 +2169,82 @@
         <v>0</v>
       </c>
       <c r="AD15" s="15">
-        <v>0</v>
+        <v>68090</v>
       </c>
       <c r="AE15" s="15">
-        <v>0</v>
+        <v>76516</v>
       </c>
       <c r="AF15" s="15">
-        <v>68090</v>
+        <v>49265</v>
       </c>
       <c r="AG15" s="15">
-        <v>76516</v>
+        <v>84410</v>
       </c>
       <c r="AH15" s="15">
-        <v>49265</v>
+        <v>60140</v>
       </c>
       <c r="AI15" s="15">
-        <v>84410</v>
+        <v>56825</v>
       </c>
       <c r="AJ15" s="15">
-        <v>60140</v>
+        <v>68280</v>
       </c>
       <c r="AK15" s="15">
-        <v>56825</v>
+        <v>63829</v>
       </c>
       <c r="AL15" s="15">
-        <v>68280</v>
+        <v>46434</v>
       </c>
       <c r="AM15" s="15">
-        <v>63829</v>
+        <v>44325</v>
       </c>
       <c r="AN15" s="15">
-        <v>46434</v>
+        <v>42895</v>
       </c>
       <c r="AO15" s="15">
-        <v>44325</v>
+        <v>31448</v>
       </c>
       <c r="AP15" s="15">
-        <v>42895</v>
+        <v>28500</v>
       </c>
       <c r="AQ15" s="15">
-        <v>31448</v>
+        <v>42071</v>
       </c>
       <c r="AR15" s="15">
-        <v>28500</v>
+        <v>40262</v>
       </c>
       <c r="AS15" s="15">
-        <v>42596</v>
+        <v>47614</v>
       </c>
       <c r="AT15" s="15">
-        <v>40262</v>
+        <v>41503</v>
       </c>
       <c r="AU15" s="15">
-        <v>47614</v>
+        <v>50167</v>
       </c>
       <c r="AV15" s="15">
-        <v>41503</v>
+        <v>49450</v>
       </c>
       <c r="AW15" s="15">
-        <v>50167</v>
+        <v>87250</v>
       </c>
       <c r="AX15" s="15">
-        <v>49450</v>
+        <v>47118</v>
       </c>
       <c r="AY15" s="15">
-        <v>87250</v>
+        <v>46470</v>
       </c>
       <c r="AZ15" s="15">
-        <v>1660</v>
+        <v>60827</v>
       </c>
       <c r="BA15" s="15">
-        <v>46423</v>
+        <v>45602</v>
       </c>
       <c r="BB15" s="15">
-        <v>60827</v>
+        <v>53230</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2417,50 +2417,50 @@
       <c r="AN17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="11" t="s">
-        <v>58</v>
+      <c r="AO17" s="11">
+        <v>79000</v>
       </c>
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11">
-        <v>79000</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AQ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>104365</v>
       </c>
       <c r="AS17" s="11">
-        <v>45195</v>
+        <v>120025</v>
       </c>
       <c r="AT17" s="11">
-        <v>104365</v>
+        <v>103100</v>
       </c>
       <c r="AU17" s="11">
-        <v>120025</v>
+        <v>81275</v>
       </c>
       <c r="AV17" s="11">
-        <v>103100</v>
+        <v>88915</v>
       </c>
       <c r="AW17" s="11">
-        <v>81275</v>
+        <v>41745</v>
       </c>
       <c r="AX17" s="11">
-        <v>88915</v>
+        <v>82635</v>
       </c>
       <c r="AY17" s="11">
-        <v>41745</v>
+        <v>114330</v>
       </c>
       <c r="AZ17" s="11">
-        <v>127850</v>
+        <v>112695</v>
       </c>
       <c r="BA17" s="11">
-        <v>114330</v>
+        <v>120005</v>
       </c>
       <c r="BB17" s="11">
-        <v>112695</v>
+        <v>38660</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>56</v>
       </c>
@@ -2576,14 +2576,14 @@
       <c r="AN18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="13" t="s">
-        <v>58</v>
+      <c r="AO18" s="13">
+        <v>0</v>
       </c>
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13">
-        <v>0</v>
+      <c r="AQ18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR18" s="13" t="s">
         <v>58</v>
@@ -2603,23 +2603,23 @@
       <c r="AW18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY18" s="13" t="s">
-        <v>58</v>
+      <c r="AX18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>0</v>
       </c>
       <c r="AZ18" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="13">
         <v>0</v>
       </c>
-      <c r="BB18" s="13">
-        <v>0</v>
+      <c r="BB18" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2702,45 +2702,45 @@
       <c r="AC19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE19" s="11" t="s">
-        <v>58</v>
+      <c r="AD19" s="11">
+        <v>18072</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>21941</v>
       </c>
       <c r="AF19" s="11">
-        <v>18072</v>
+        <v>5046</v>
       </c>
       <c r="AG19" s="11">
-        <v>21941</v>
+        <v>119840</v>
       </c>
       <c r="AH19" s="11">
-        <v>5046</v>
+        <v>98295</v>
       </c>
       <c r="AI19" s="11">
-        <v>119840</v>
+        <v>59755</v>
       </c>
       <c r="AJ19" s="11">
-        <v>98295</v>
+        <v>63695</v>
       </c>
       <c r="AK19" s="11">
-        <v>59755</v>
+        <v>59075</v>
       </c>
       <c r="AL19" s="11">
-        <v>63695</v>
+        <v>98000</v>
       </c>
       <c r="AM19" s="11">
-        <v>59075</v>
+        <v>113705</v>
       </c>
       <c r="AN19" s="11">
-        <v>98000</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>113705</v>
-      </c>
-      <c r="AP19" s="11">
         <v>74570</v>
       </c>
+      <c r="AO19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ19" s="11" t="s">
         <v>58</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2861,20 +2861,20 @@
       <c r="AC20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>58</v>
+      <c r="AD20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>0</v>
       </c>
       <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>0</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="13" t="s">
         <v>58</v>
@@ -2937,7 +2937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3056,15 +3056,15 @@
       <c r="AO21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR21" s="11">
+      <c r="AP21" s="11">
         <v>55920</v>
       </c>
+      <c r="AQ21" s="11">
+        <v>42135</v>
+      </c>
+      <c r="AR21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS21" s="11" t="s">
         <v>58</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3178,82 +3178,82 @@
         <v>0</v>
       </c>
       <c r="AD22" s="17">
-        <v>0</v>
+        <v>18072</v>
       </c>
       <c r="AE22" s="17">
-        <v>0</v>
+        <v>21941</v>
       </c>
       <c r="AF22" s="17">
-        <v>18072</v>
+        <v>5046</v>
       </c>
       <c r="AG22" s="17">
-        <v>21941</v>
+        <v>119840</v>
       </c>
       <c r="AH22" s="17">
-        <v>5046</v>
+        <v>98295</v>
       </c>
       <c r="AI22" s="17">
-        <v>119840</v>
+        <v>59755</v>
       </c>
       <c r="AJ22" s="17">
-        <v>98295</v>
+        <v>63695</v>
       </c>
       <c r="AK22" s="17">
-        <v>59755</v>
+        <v>59075</v>
       </c>
       <c r="AL22" s="17">
-        <v>63695</v>
+        <v>98000</v>
       </c>
       <c r="AM22" s="17">
-        <v>59075</v>
+        <v>113705</v>
       </c>
       <c r="AN22" s="17">
-        <v>98000</v>
+        <v>74570</v>
       </c>
       <c r="AO22" s="17">
-        <v>113705</v>
+        <v>79000</v>
       </c>
       <c r="AP22" s="17">
-        <v>74570</v>
+        <v>55920</v>
       </c>
       <c r="AQ22" s="17">
-        <v>79000</v>
+        <v>42135</v>
       </c>
       <c r="AR22" s="17">
-        <v>55920</v>
+        <v>104365</v>
       </c>
       <c r="AS22" s="17">
-        <v>45195</v>
+        <v>120025</v>
       </c>
       <c r="AT22" s="17">
-        <v>104365</v>
+        <v>103100</v>
       </c>
       <c r="AU22" s="17">
-        <v>120025</v>
+        <v>81275</v>
       </c>
       <c r="AV22" s="17">
-        <v>103100</v>
+        <v>88915</v>
       </c>
       <c r="AW22" s="17">
-        <v>81275</v>
+        <v>41745</v>
       </c>
       <c r="AX22" s="17">
-        <v>88915</v>
+        <v>82682</v>
       </c>
       <c r="AY22" s="17">
-        <v>41745</v>
+        <v>114330</v>
       </c>
       <c r="AZ22" s="17">
-        <v>127897</v>
+        <v>112695</v>
       </c>
       <c r="BA22" s="17">
-        <v>114330</v>
+        <v>120005</v>
       </c>
       <c r="BB22" s="17">
-        <v>112695</v>
+        <v>38660</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>70</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>72</v>
       </c>
@@ -3550,11 +3550,11 @@
       <c r="AC25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE25" s="17" t="s">
-        <v>58</v>
+      <c r="AD25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17">
+        <v>0</v>
       </c>
       <c r="AF25" s="17">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>73</v>
       </c>
@@ -3708,82 +3708,82 @@
         <v>0</v>
       </c>
       <c r="AD26" s="15">
-        <v>0</v>
+        <v>86162</v>
       </c>
       <c r="AE26" s="15">
-        <v>0</v>
+        <v>98457</v>
       </c>
       <c r="AF26" s="15">
-        <v>86162</v>
+        <v>54311</v>
       </c>
       <c r="AG26" s="15">
-        <v>98457</v>
+        <v>204250</v>
       </c>
       <c r="AH26" s="15">
-        <v>54311</v>
+        <v>158435</v>
       </c>
       <c r="AI26" s="15">
-        <v>204250</v>
+        <v>116580</v>
       </c>
       <c r="AJ26" s="15">
-        <v>158435</v>
+        <v>131975</v>
       </c>
       <c r="AK26" s="15">
-        <v>116580</v>
+        <v>122904</v>
       </c>
       <c r="AL26" s="15">
-        <v>131975</v>
+        <v>144434</v>
       </c>
       <c r="AM26" s="15">
-        <v>122904</v>
+        <v>158030</v>
       </c>
       <c r="AN26" s="15">
-        <v>144434</v>
+        <v>117465</v>
       </c>
       <c r="AO26" s="15">
-        <v>158030</v>
+        <v>110448</v>
       </c>
       <c r="AP26" s="15">
-        <v>117465</v>
+        <v>84420</v>
       </c>
       <c r="AQ26" s="15">
-        <v>110448</v>
+        <v>84206</v>
       </c>
       <c r="AR26" s="15">
-        <v>84420</v>
+        <v>144627</v>
       </c>
       <c r="AS26" s="15">
-        <v>87791</v>
+        <v>167639</v>
       </c>
       <c r="AT26" s="15">
-        <v>144627</v>
+        <v>144603</v>
       </c>
       <c r="AU26" s="15">
-        <v>167639</v>
+        <v>131442</v>
       </c>
       <c r="AV26" s="15">
-        <v>144603</v>
+        <v>138365</v>
       </c>
       <c r="AW26" s="15">
-        <v>131442</v>
+        <v>128995</v>
       </c>
       <c r="AX26" s="15">
-        <v>138365</v>
+        <v>129800</v>
       </c>
       <c r="AY26" s="15">
-        <v>128995</v>
+        <v>160800</v>
       </c>
       <c r="AZ26" s="15">
-        <v>129557</v>
+        <v>173522</v>
       </c>
       <c r="BA26" s="15">
-        <v>160753</v>
+        <v>165607</v>
       </c>
       <c r="BB26" s="15">
-        <v>173522</v>
+        <v>91890</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3838,7 +3838,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3893,7 +3893,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3948,7 +3948,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4160,7 +4160,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>75</v>
       </c>
@@ -4217,7 +4217,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -4333,14 +4333,14 @@
       <c r="AN33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="11" t="s">
-        <v>58</v>
+      <c r="AO33" s="11">
+        <v>505</v>
       </c>
       <c r="AP33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ33" s="11">
-        <v>505</v>
+      <c r="AQ33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR33" s="11" t="s">
         <v>58</v>
@@ -4348,8 +4348,8 @@
       <c r="AS33" s="11">
         <v>0</v>
       </c>
-      <c r="AT33" s="11" t="s">
-        <v>58</v>
+      <c r="AT33" s="11">
+        <v>0</v>
       </c>
       <c r="AU33" s="11">
         <v>0</v>
@@ -4372,11 +4372,11 @@
       <c r="BA33" s="11">
         <v>0</v>
       </c>
-      <c r="BB33" s="11">
-        <v>0</v>
+      <c r="BB33" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
@@ -4459,45 +4459,45 @@
       <c r="AC34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE34" s="13" t="s">
-        <v>58</v>
+      <c r="AD34" s="13">
+        <v>64030</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>77040</v>
       </c>
       <c r="AF34" s="13">
-        <v>64030</v>
+        <v>60132</v>
       </c>
       <c r="AG34" s="13">
-        <v>77040</v>
+        <v>74626</v>
       </c>
       <c r="AH34" s="13">
-        <v>60132</v>
+        <v>70923</v>
       </c>
       <c r="AI34" s="13">
-        <v>74626</v>
+        <v>56972</v>
       </c>
       <c r="AJ34" s="13">
-        <v>70923</v>
+        <v>64678</v>
       </c>
       <c r="AK34" s="13">
-        <v>56972</v>
+        <v>48902</v>
       </c>
       <c r="AL34" s="13">
-        <v>64678</v>
+        <v>30862</v>
       </c>
       <c r="AM34" s="13">
-        <v>48902</v>
+        <v>16118</v>
       </c>
       <c r="AN34" s="13">
-        <v>30862</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>16118</v>
-      </c>
-      <c r="AP34" s="13">
         <v>2296</v>
       </c>
+      <c r="AO34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP34" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ34" s="13" t="s">
         <v>58</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
@@ -4798,62 +4798,62 @@
       <c r="AJ36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL36" s="13" t="s">
-        <v>58</v>
+      <c r="AK36" s="13">
+        <v>3281</v>
+      </c>
+      <c r="AL36" s="13">
+        <v>15145</v>
       </c>
       <c r="AM36" s="13">
-        <v>3281</v>
+        <v>27844</v>
       </c>
       <c r="AN36" s="13">
-        <v>15145</v>
+        <v>44631</v>
       </c>
       <c r="AO36" s="13">
-        <v>27844</v>
+        <v>39281</v>
       </c>
       <c r="AP36" s="13">
-        <v>44631</v>
+        <v>29462</v>
       </c>
       <c r="AQ36" s="13">
-        <v>39281</v>
+        <v>40528</v>
       </c>
       <c r="AR36" s="13">
-        <v>29462</v>
+        <v>37036</v>
       </c>
       <c r="AS36" s="13">
-        <v>39907</v>
+        <v>48319</v>
       </c>
       <c r="AT36" s="13">
-        <v>37036</v>
+        <v>49708</v>
       </c>
       <c r="AU36" s="13">
-        <v>48319</v>
+        <v>47261</v>
       </c>
       <c r="AV36" s="13">
-        <v>49708</v>
+        <v>48621</v>
       </c>
       <c r="AW36" s="13">
-        <v>47261</v>
+        <v>41881</v>
       </c>
       <c r="AX36" s="13">
-        <v>48621</v>
+        <v>44411</v>
       </c>
       <c r="AY36" s="13">
-        <v>41881</v>
+        <v>56181</v>
       </c>
       <c r="AZ36" s="13">
-        <v>44411</v>
+        <v>53891</v>
       </c>
       <c r="BA36" s="13">
-        <v>56181</v>
+        <v>47657</v>
       </c>
       <c r="BB36" s="13">
-        <v>53891</v>
+        <v>49271</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>76</v>
       </c>
@@ -4935,82 +4935,82 @@
         <v>0</v>
       </c>
       <c r="AD37" s="15">
-        <v>0</v>
+        <v>64030</v>
       </c>
       <c r="AE37" s="15">
-        <v>0</v>
+        <v>77040</v>
       </c>
       <c r="AF37" s="15">
-        <v>64030</v>
+        <v>60132</v>
       </c>
       <c r="AG37" s="15">
-        <v>77040</v>
+        <v>74626</v>
       </c>
       <c r="AH37" s="15">
-        <v>60132</v>
+        <v>70923</v>
       </c>
       <c r="AI37" s="15">
-        <v>74626</v>
+        <v>56972</v>
       </c>
       <c r="AJ37" s="15">
-        <v>70923</v>
+        <v>64678</v>
       </c>
       <c r="AK37" s="15">
-        <v>56972</v>
+        <v>52183</v>
       </c>
       <c r="AL37" s="15">
-        <v>64678</v>
+        <v>46007</v>
       </c>
       <c r="AM37" s="15">
-        <v>52183</v>
+        <v>43961</v>
       </c>
       <c r="AN37" s="15">
-        <v>46007</v>
+        <v>46927</v>
       </c>
       <c r="AO37" s="15">
-        <v>43961</v>
+        <v>39786</v>
       </c>
       <c r="AP37" s="15">
-        <v>46927</v>
+        <v>29462</v>
       </c>
       <c r="AQ37" s="15">
-        <v>39786</v>
+        <v>40528</v>
       </c>
       <c r="AR37" s="15">
-        <v>29462</v>
+        <v>37036</v>
       </c>
       <c r="AS37" s="15">
-        <v>39907</v>
+        <v>48319</v>
       </c>
       <c r="AT37" s="15">
-        <v>37036</v>
+        <v>49708</v>
       </c>
       <c r="AU37" s="15">
-        <v>48319</v>
+        <v>47261</v>
       </c>
       <c r="AV37" s="15">
-        <v>49708</v>
+        <v>48621</v>
       </c>
       <c r="AW37" s="15">
-        <v>47261</v>
+        <v>41881</v>
       </c>
       <c r="AX37" s="15">
-        <v>48621</v>
+        <v>44411</v>
       </c>
       <c r="AY37" s="15">
-        <v>41881</v>
+        <v>56181</v>
       </c>
       <c r="AZ37" s="15">
-        <v>44411</v>
+        <v>53891</v>
       </c>
       <c r="BA37" s="15">
-        <v>56181</v>
+        <v>47657</v>
       </c>
       <c r="BB37" s="15">
-        <v>53891</v>
+        <v>49271</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>77</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -5183,50 +5183,50 @@
       <c r="AN39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO39" s="11" t="s">
-        <v>58</v>
+      <c r="AO39" s="11">
+        <v>50115</v>
       </c>
       <c r="AP39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ39" s="11">
-        <v>50115</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>58</v>
+      <c r="AQ39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>44178</v>
       </c>
       <c r="AS39" s="11">
-        <v>17186</v>
+        <v>38806</v>
       </c>
       <c r="AT39" s="11">
-        <v>44178</v>
+        <v>71816</v>
       </c>
       <c r="AU39" s="11">
-        <v>38806</v>
+        <v>66424</v>
       </c>
       <c r="AV39" s="11">
-        <v>71816</v>
+        <v>37823</v>
       </c>
       <c r="AW39" s="11">
-        <v>66424</v>
+        <v>22583</v>
       </c>
       <c r="AX39" s="11">
-        <v>37823</v>
+        <v>42404</v>
       </c>
       <c r="AY39" s="11">
-        <v>22583</v>
+        <v>39911</v>
       </c>
       <c r="AZ39" s="11">
-        <v>42404</v>
+        <v>51712</v>
       </c>
       <c r="BA39" s="11">
-        <v>39911</v>
+        <v>17488</v>
       </c>
       <c r="BB39" s="11">
-        <v>51712</v>
+        <v>38386</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>56</v>
       </c>
@@ -5342,14 +5342,14 @@
       <c r="AN40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO40" s="13" t="s">
-        <v>58</v>
+      <c r="AO40" s="13">
+        <v>0</v>
       </c>
       <c r="AP40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ40" s="13">
-        <v>0</v>
+      <c r="AQ40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR40" s="13" t="s">
         <v>58</v>
@@ -5369,23 +5369,23 @@
       <c r="AW40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY40" s="13" t="s">
-        <v>58</v>
+      <c r="AX40" s="13">
+        <v>47</v>
+      </c>
+      <c r="AY40" s="13">
+        <v>0</v>
       </c>
       <c r="AZ40" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="13">
         <v>0</v>
       </c>
-      <c r="BB40" s="13">
-        <v>0</v>
+      <c r="BB40" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>65</v>
       </c>
@@ -5468,45 +5468,45 @@
       <c r="AC41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE41" s="11" t="s">
-        <v>58</v>
+      <c r="AD41" s="11">
+        <v>18072</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>21941</v>
       </c>
       <c r="AF41" s="11">
-        <v>18072</v>
+        <v>5046</v>
       </c>
       <c r="AG41" s="11">
-        <v>21941</v>
+        <v>17304</v>
       </c>
       <c r="AH41" s="11">
-        <v>5046</v>
+        <v>18163</v>
       </c>
       <c r="AI41" s="11">
-        <v>17304</v>
+        <v>29234</v>
       </c>
       <c r="AJ41" s="11">
-        <v>18163</v>
+        <v>7057</v>
       </c>
       <c r="AK41" s="11">
-        <v>29234</v>
+        <v>14122</v>
       </c>
       <c r="AL41" s="11">
-        <v>7057</v>
+        <v>2727</v>
       </c>
       <c r="AM41" s="11">
-        <v>14122</v>
+        <v>31053</v>
       </c>
       <c r="AN41" s="11">
-        <v>2727</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>31053</v>
-      </c>
-      <c r="AP41" s="11">
         <v>33877</v>
       </c>
+      <c r="AO41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP41" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ41" s="11" t="s">
         <v>58</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>66</v>
       </c>
@@ -5627,20 +5627,20 @@
       <c r="AC42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE42" s="13" t="s">
-        <v>58</v>
+      <c r="AD42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="13">
+        <v>0</v>
       </c>
       <c r="AF42" s="13">
         <v>0</v>
       </c>
-      <c r="AG42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>0</v>
+      <c r="AG42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI42" s="13" t="s">
         <v>58</v>
@@ -5703,7 +5703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>67</v>
       </c>
@@ -5822,15 +5822,15 @@
       <c r="AO43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR43" s="11">
+      <c r="AP43" s="11">
         <v>55833</v>
       </c>
+      <c r="AQ43" s="11">
+        <v>17460</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS43" s="11" t="s">
         <v>58</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>78</v>
       </c>
@@ -5944,82 +5944,82 @@
         <v>0</v>
       </c>
       <c r="AD44" s="17">
-        <v>0</v>
+        <v>18072</v>
       </c>
       <c r="AE44" s="17">
-        <v>0</v>
+        <v>21941</v>
       </c>
       <c r="AF44" s="17">
-        <v>18072</v>
+        <v>5046</v>
       </c>
       <c r="AG44" s="17">
-        <v>21941</v>
+        <v>17304</v>
       </c>
       <c r="AH44" s="17">
-        <v>5046</v>
+        <v>18163</v>
       </c>
       <c r="AI44" s="17">
-        <v>17304</v>
+        <v>29234</v>
       </c>
       <c r="AJ44" s="17">
-        <v>18163</v>
+        <v>7057</v>
       </c>
       <c r="AK44" s="17">
-        <v>29234</v>
+        <v>14122</v>
       </c>
       <c r="AL44" s="17">
-        <v>7057</v>
+        <v>2727</v>
       </c>
       <c r="AM44" s="17">
-        <v>14122</v>
+        <v>31053</v>
       </c>
       <c r="AN44" s="17">
-        <v>2727</v>
+        <v>33877</v>
       </c>
       <c r="AO44" s="17">
-        <v>31053</v>
+        <v>50115</v>
       </c>
       <c r="AP44" s="17">
-        <v>33877</v>
+        <v>55833</v>
       </c>
       <c r="AQ44" s="17">
-        <v>50115</v>
+        <v>17460</v>
       </c>
       <c r="AR44" s="17">
-        <v>55833</v>
+        <v>44178</v>
       </c>
       <c r="AS44" s="17">
-        <v>17186</v>
+        <v>38806</v>
       </c>
       <c r="AT44" s="17">
-        <v>44178</v>
+        <v>71816</v>
       </c>
       <c r="AU44" s="17">
-        <v>38806</v>
+        <v>66424</v>
       </c>
       <c r="AV44" s="17">
-        <v>71816</v>
+        <v>37823</v>
       </c>
       <c r="AW44" s="17">
-        <v>66424</v>
+        <v>22583</v>
       </c>
       <c r="AX44" s="17">
-        <v>37823</v>
+        <v>42451</v>
       </c>
       <c r="AY44" s="17">
-        <v>22583</v>
+        <v>39911</v>
       </c>
       <c r="AZ44" s="17">
-        <v>42451</v>
+        <v>51712</v>
       </c>
       <c r="BA44" s="17">
-        <v>39911</v>
+        <v>17488</v>
       </c>
       <c r="BB44" s="17">
-        <v>51712</v>
+        <v>38386</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>69</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>70</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>72</v>
       </c>
@@ -6316,11 +6316,11 @@
       <c r="AC47" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD47" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE47" s="17" t="s">
-        <v>58</v>
+      <c r="AD47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="17">
+        <v>0</v>
       </c>
       <c r="AF47" s="17">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>79</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="BA48" s="19"/>
       <c r="BB48" s="19"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>80</v>
       </c>
@@ -6530,11 +6530,11 @@
       <c r="AC49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE49" s="15" t="s">
-        <v>58</v>
+      <c r="AD49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="15">
+        <v>0</v>
       </c>
       <c r="AF49" s="15">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>73</v>
       </c>
@@ -6688,82 +6688,82 @@
         <v>0</v>
       </c>
       <c r="AD50" s="17">
-        <v>0</v>
+        <v>82102</v>
       </c>
       <c r="AE50" s="17">
-        <v>0</v>
+        <v>98982</v>
       </c>
       <c r="AF50" s="17">
-        <v>82102</v>
+        <v>65178</v>
       </c>
       <c r="AG50" s="17">
-        <v>98982</v>
+        <v>91930</v>
       </c>
       <c r="AH50" s="17">
-        <v>65178</v>
+        <v>89086</v>
       </c>
       <c r="AI50" s="17">
-        <v>91930</v>
+        <v>86206</v>
       </c>
       <c r="AJ50" s="17">
-        <v>89086</v>
+        <v>71735</v>
       </c>
       <c r="AK50" s="17">
-        <v>86206</v>
+        <v>66305</v>
       </c>
       <c r="AL50" s="17">
-        <v>71735</v>
+        <v>48734</v>
       </c>
       <c r="AM50" s="17">
-        <v>66305</v>
+        <v>75014</v>
       </c>
       <c r="AN50" s="17">
-        <v>48734</v>
+        <v>80804</v>
       </c>
       <c r="AO50" s="17">
-        <v>75014</v>
+        <v>89901</v>
       </c>
       <c r="AP50" s="17">
-        <v>80804</v>
+        <v>85295</v>
       </c>
       <c r="AQ50" s="17">
-        <v>89901</v>
+        <v>57988</v>
       </c>
       <c r="AR50" s="17">
-        <v>85295</v>
+        <v>81214</v>
       </c>
       <c r="AS50" s="17">
-        <v>57093</v>
+        <v>87125</v>
       </c>
       <c r="AT50" s="17">
-        <v>81214</v>
+        <v>121524</v>
       </c>
       <c r="AU50" s="17">
-        <v>87125</v>
+        <v>113685</v>
       </c>
       <c r="AV50" s="17">
-        <v>121524</v>
+        <v>86443</v>
       </c>
       <c r="AW50" s="17">
-        <v>113685</v>
+        <v>64464</v>
       </c>
       <c r="AX50" s="17">
-        <v>86443</v>
+        <v>86862</v>
       </c>
       <c r="AY50" s="17">
-        <v>64464</v>
+        <v>96092</v>
       </c>
       <c r="AZ50" s="17">
-        <v>86862</v>
+        <v>105603</v>
       </c>
       <c r="BA50" s="17">
-        <v>96092</v>
+        <v>65145</v>
       </c>
       <c r="BB50" s="17">
-        <v>105603</v>
+        <v>87657</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6818,7 +6818,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6873,7 +6873,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6928,7 +6928,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>81</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7140,7 +7140,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>82</v>
       </c>
@@ -7197,7 +7197,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -7313,14 +7313,14 @@
       <c r="AN57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO57" s="11" t="s">
-        <v>58</v>
+      <c r="AO57" s="11">
+        <v>5872</v>
       </c>
       <c r="AP57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="11">
-        <v>5872</v>
+      <c r="AQ57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
@@ -7328,8 +7328,8 @@
       <c r="AS57" s="11">
         <v>0</v>
       </c>
-      <c r="AT57" s="11" t="s">
-        <v>58</v>
+      <c r="AT57" s="11">
+        <v>0</v>
       </c>
       <c r="AU57" s="11">
         <v>0</v>
@@ -7352,11 +7352,11 @@
       <c r="BA57" s="11">
         <v>0</v>
       </c>
-      <c r="BB57" s="11">
-        <v>0</v>
+      <c r="BB57" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7439,45 +7439,45 @@
       <c r="AC58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE58" s="13" t="s">
-        <v>58</v>
+      <c r="AD58" s="13">
+        <v>175039</v>
+      </c>
+      <c r="AE58" s="13">
+        <v>218869</v>
       </c>
       <c r="AF58" s="13">
-        <v>175039</v>
+        <v>178641</v>
       </c>
       <c r="AG58" s="13">
-        <v>218869</v>
+        <v>293114</v>
       </c>
       <c r="AH58" s="13">
-        <v>178641</v>
+        <v>274285</v>
       </c>
       <c r="AI58" s="13">
-        <v>293114</v>
+        <v>224004</v>
       </c>
       <c r="AJ58" s="13">
-        <v>274285</v>
+        <v>266713</v>
       </c>
       <c r="AK58" s="13">
-        <v>224004</v>
+        <v>197899</v>
       </c>
       <c r="AL58" s="13">
-        <v>266713</v>
+        <v>135034</v>
       </c>
       <c r="AM58" s="13">
-        <v>197899</v>
+        <v>67011</v>
       </c>
       <c r="AN58" s="13">
-        <v>135034</v>
-      </c>
-      <c r="AO58" s="13">
-        <v>67011</v>
-      </c>
-      <c r="AP58" s="13">
         <v>8148</v>
       </c>
+      <c r="AO58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ58" s="13" t="s">
         <v>58</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
@@ -7634,14 +7634,14 @@
       <c r="AO59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR59" s="11">
-        <v>0</v>
+      <c r="AP59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS59" s="11" t="s">
         <v>58</v>
@@ -7674,7 +7674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -7778,62 +7778,62 @@
       <c r="AJ60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL60" s="13" t="s">
-        <v>58</v>
+      <c r="AK60" s="13">
+        <v>15457</v>
+      </c>
+      <c r="AL60" s="13">
+        <v>67191</v>
       </c>
       <c r="AM60" s="13">
-        <v>15457</v>
+        <v>121099</v>
       </c>
       <c r="AN60" s="13">
-        <v>67191</v>
+        <v>194307</v>
       </c>
       <c r="AO60" s="13">
-        <v>121099</v>
+        <v>168349</v>
       </c>
       <c r="AP60" s="13">
-        <v>194307</v>
+        <v>134985</v>
       </c>
       <c r="AQ60" s="13">
-        <v>168349</v>
+        <v>200820</v>
       </c>
       <c r="AR60" s="13">
-        <v>134985</v>
+        <v>194103</v>
       </c>
       <c r="AS60" s="13">
-        <v>198420</v>
+        <v>250593</v>
       </c>
       <c r="AT60" s="13">
-        <v>194103</v>
+        <v>265789</v>
       </c>
       <c r="AU60" s="13">
-        <v>250593</v>
+        <v>263522</v>
       </c>
       <c r="AV60" s="13">
-        <v>265789</v>
+        <v>263098</v>
       </c>
       <c r="AW60" s="13">
-        <v>263522</v>
+        <v>232455</v>
       </c>
       <c r="AX60" s="13">
-        <v>263098</v>
+        <v>236132</v>
       </c>
       <c r="AY60" s="13">
-        <v>232455</v>
+        <v>301492</v>
       </c>
       <c r="AZ60" s="13">
-        <v>235714</v>
+        <v>297689</v>
       </c>
       <c r="BA60" s="13">
-        <v>301492</v>
+        <v>260330</v>
       </c>
       <c r="BB60" s="13">
-        <v>297689</v>
+        <v>269304</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>76</v>
       </c>
@@ -7915,82 +7915,82 @@
         <v>0</v>
       </c>
       <c r="AD61" s="15">
-        <v>0</v>
+        <v>175039</v>
       </c>
       <c r="AE61" s="15">
-        <v>0</v>
+        <v>218869</v>
       </c>
       <c r="AF61" s="15">
-        <v>175039</v>
+        <v>178641</v>
       </c>
       <c r="AG61" s="15">
-        <v>218869</v>
+        <v>293114</v>
       </c>
       <c r="AH61" s="15">
-        <v>178641</v>
+        <v>274285</v>
       </c>
       <c r="AI61" s="15">
-        <v>293114</v>
+        <v>224004</v>
       </c>
       <c r="AJ61" s="15">
-        <v>274285</v>
+        <v>266713</v>
       </c>
       <c r="AK61" s="15">
-        <v>224004</v>
+        <v>213356</v>
       </c>
       <c r="AL61" s="15">
-        <v>266713</v>
+        <v>202225</v>
       </c>
       <c r="AM61" s="15">
-        <v>213356</v>
+        <v>188110</v>
       </c>
       <c r="AN61" s="15">
-        <v>202225</v>
+        <v>202455</v>
       </c>
       <c r="AO61" s="15">
-        <v>188110</v>
+        <v>174221</v>
       </c>
       <c r="AP61" s="15">
-        <v>202455</v>
+        <v>134985</v>
       </c>
       <c r="AQ61" s="15">
-        <v>174221</v>
+        <v>200820</v>
       </c>
       <c r="AR61" s="15">
-        <v>134985</v>
+        <v>194103</v>
       </c>
       <c r="AS61" s="15">
-        <v>198420</v>
+        <v>250593</v>
       </c>
       <c r="AT61" s="15">
-        <v>194103</v>
+        <v>265789</v>
       </c>
       <c r="AU61" s="15">
-        <v>250593</v>
+        <v>263522</v>
       </c>
       <c r="AV61" s="15">
-        <v>265789</v>
+        <v>263098</v>
       </c>
       <c r="AW61" s="15">
-        <v>263522</v>
+        <v>232455</v>
       </c>
       <c r="AX61" s="15">
-        <v>263098</v>
+        <v>236132</v>
       </c>
       <c r="AY61" s="15">
-        <v>232455</v>
+        <v>301492</v>
       </c>
       <c r="AZ61" s="15">
-        <v>235714</v>
+        <v>297689</v>
       </c>
       <c r="BA61" s="15">
-        <v>301492</v>
+        <v>260330</v>
       </c>
       <c r="BB61" s="15">
-        <v>297689</v>
+        <v>269304</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>83</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>64</v>
       </c>
@@ -8163,50 +8163,50 @@
       <c r="AN63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO63" s="11" t="s">
-        <v>58</v>
+      <c r="AO63" s="11">
+        <v>225433</v>
       </c>
       <c r="AP63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ63" s="11">
-        <v>225433</v>
-      </c>
-      <c r="AR63" s="11" t="s">
-        <v>58</v>
+      <c r="AQ63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR63" s="11">
+        <v>236947</v>
       </c>
       <c r="AS63" s="11">
-        <v>72628</v>
+        <v>235724</v>
       </c>
       <c r="AT63" s="11">
-        <v>236947</v>
+        <v>446140</v>
       </c>
       <c r="AU63" s="11">
-        <v>235724</v>
+        <v>454222</v>
       </c>
       <c r="AV63" s="11">
-        <v>446305</v>
+        <v>265659</v>
       </c>
       <c r="AW63" s="11">
-        <v>454222</v>
+        <v>144469</v>
       </c>
       <c r="AX63" s="11">
-        <v>265659</v>
+        <v>309872</v>
       </c>
       <c r="AY63" s="11">
-        <v>144469</v>
+        <v>334483</v>
       </c>
       <c r="AZ63" s="11">
-        <v>309872</v>
+        <v>452242</v>
       </c>
       <c r="BA63" s="11">
-        <v>334483</v>
+        <v>127959</v>
       </c>
       <c r="BB63" s="11">
-        <v>452242</v>
+        <v>380049</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>56</v>
       </c>
@@ -8322,14 +8322,14 @@
       <c r="AN64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO64" s="13" t="s">
-        <v>58</v>
+      <c r="AO64" s="13">
+        <v>0</v>
       </c>
       <c r="AP64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ64" s="13">
-        <v>0</v>
+      <c r="AQ64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR64" s="13" t="s">
         <v>58</v>
@@ -8349,23 +8349,23 @@
       <c r="AW64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY64" s="13" t="s">
-        <v>58</v>
+      <c r="AX64" s="13">
+        <v>443</v>
+      </c>
+      <c r="AY64" s="13">
+        <v>0</v>
       </c>
       <c r="AZ64" s="13">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="13">
         <v>0</v>
       </c>
-      <c r="BB64" s="13">
-        <v>0</v>
+      <c r="BB64" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>65</v>
       </c>
@@ -8448,45 +8448,45 @@
       <c r="AC65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE65" s="11" t="s">
-        <v>58</v>
+      <c r="AD65" s="11">
+        <v>42775</v>
+      </c>
+      <c r="AE65" s="11">
+        <v>56061</v>
       </c>
       <c r="AF65" s="11">
-        <v>42775</v>
+        <v>14078</v>
       </c>
       <c r="AG65" s="11">
-        <v>56061</v>
+        <v>45922</v>
       </c>
       <c r="AH65" s="11">
-        <v>14078</v>
+        <v>47505</v>
       </c>
       <c r="AI65" s="11">
-        <v>45922</v>
+        <v>105997</v>
       </c>
       <c r="AJ65" s="11">
-        <v>47505</v>
+        <v>28139</v>
       </c>
       <c r="AK65" s="11">
-        <v>105997</v>
+        <v>63255</v>
       </c>
       <c r="AL65" s="11">
-        <v>28139</v>
+        <v>10835</v>
       </c>
       <c r="AM65" s="11">
-        <v>63255</v>
+        <v>133066</v>
       </c>
       <c r="AN65" s="11">
-        <v>10835</v>
-      </c>
-      <c r="AO65" s="11">
-        <v>133066</v>
-      </c>
-      <c r="AP65" s="11">
         <v>164929</v>
       </c>
+      <c r="AO65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP65" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ65" s="11" t="s">
         <v>58</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
@@ -8607,11 +8607,11 @@
       <c r="AC66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE66" s="13" t="s">
-        <v>58</v>
+      <c r="AD66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="13">
+        <v>0</v>
       </c>
       <c r="AF66" s="13">
         <v>0</v>
@@ -8640,11 +8640,11 @@
       <c r="AN66" s="13">
         <v>0</v>
       </c>
-      <c r="AO66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP66" s="13">
-        <v>0</v>
+      <c r="AO66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ66" s="13" t="s">
         <v>58</v>
@@ -8683,7 +8683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>67</v>
       </c>
@@ -8802,15 +8802,15 @@
       <c r="AO67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR67" s="11">
+      <c r="AP67" s="11">
         <v>292946</v>
       </c>
+      <c r="AQ67" s="11">
+        <v>67594</v>
+      </c>
+      <c r="AR67" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS67" s="11" t="s">
         <v>58</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>78</v>
       </c>
@@ -8924,82 +8924,82 @@
         <v>0</v>
       </c>
       <c r="AD68" s="17">
-        <v>0</v>
+        <v>42775</v>
       </c>
       <c r="AE68" s="17">
-        <v>0</v>
+        <v>56061</v>
       </c>
       <c r="AF68" s="17">
-        <v>42775</v>
+        <v>14078</v>
       </c>
       <c r="AG68" s="17">
-        <v>56061</v>
+        <v>45922</v>
       </c>
       <c r="AH68" s="17">
-        <v>14078</v>
+        <v>47505</v>
       </c>
       <c r="AI68" s="17">
-        <v>45922</v>
+        <v>105997</v>
       </c>
       <c r="AJ68" s="17">
-        <v>47505</v>
+        <v>28139</v>
       </c>
       <c r="AK68" s="17">
-        <v>105997</v>
+        <v>63255</v>
       </c>
       <c r="AL68" s="17">
-        <v>28139</v>
+        <v>10835</v>
       </c>
       <c r="AM68" s="17">
-        <v>63255</v>
+        <v>133066</v>
       </c>
       <c r="AN68" s="17">
-        <v>10835</v>
+        <v>164929</v>
       </c>
       <c r="AO68" s="17">
-        <v>133066</v>
+        <v>225433</v>
       </c>
       <c r="AP68" s="17">
-        <v>164929</v>
+        <v>292946</v>
       </c>
       <c r="AQ68" s="17">
-        <v>225433</v>
+        <v>67594</v>
       </c>
       <c r="AR68" s="17">
-        <v>292946</v>
+        <v>236947</v>
       </c>
       <c r="AS68" s="17">
-        <v>72628</v>
+        <v>235724</v>
       </c>
       <c r="AT68" s="17">
-        <v>236947</v>
+        <v>446140</v>
       </c>
       <c r="AU68" s="17">
-        <v>235724</v>
+        <v>454222</v>
       </c>
       <c r="AV68" s="17">
-        <v>446305</v>
+        <v>265659</v>
       </c>
       <c r="AW68" s="17">
-        <v>454222</v>
+        <v>144469</v>
       </c>
       <c r="AX68" s="17">
-        <v>265659</v>
+        <v>310315</v>
       </c>
       <c r="AY68" s="17">
-        <v>144469</v>
+        <v>334483</v>
       </c>
       <c r="AZ68" s="17">
-        <v>310315</v>
+        <v>452242</v>
       </c>
       <c r="BA68" s="17">
-        <v>334483</v>
+        <v>127959</v>
       </c>
       <c r="BB68" s="17">
-        <v>452242</v>
+        <v>380049</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>84</v>
       </c>
@@ -9056,7 +9056,7 @@
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>70</v>
       </c>
@@ -9172,14 +9172,14 @@
       <c r="AN70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO70" s="11" t="s">
-        <v>58</v>
+      <c r="AO70" s="11">
+        <v>19000</v>
       </c>
       <c r="AP70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ70" s="11">
-        <v>19000</v>
+      <c r="AQ70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR70" s="11" t="s">
         <v>58</v>
@@ -9215,7 +9215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>72</v>
       </c>
@@ -9298,11 +9298,11 @@
       <c r="AC71" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD71" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE71" s="17" t="s">
-        <v>58</v>
+      <c r="AD71" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="17">
+        <v>0</v>
       </c>
       <c r="AF71" s="17">
         <v>0</v>
@@ -9332,13 +9332,13 @@
         <v>0</v>
       </c>
       <c r="AO71" s="17">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="AP71" s="17">
         <v>0</v>
       </c>
       <c r="AQ71" s="17">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="AR71" s="17">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
         <v>85</v>
       </c>
@@ -9431,7 +9431,7 @@
       <c r="BA72" s="19"/>
       <c r="BB72" s="19"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>80</v>
       </c>
@@ -9514,11 +9514,11 @@
       <c r="AC73" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD73" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE73" s="15" t="s">
-        <v>58</v>
+      <c r="AD73" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="15">
+        <v>0</v>
       </c>
       <c r="AF73" s="15">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>86</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>87</v>
       </c>
@@ -9730,11 +9730,11 @@
       <c r="AC75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE75" s="11" t="s">
-        <v>58</v>
+      <c r="AD75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="11">
+        <v>0</v>
       </c>
       <c r="AF75" s="11">
         <v>0</v>
@@ -9764,13 +9764,13 @@
         <v>0</v>
       </c>
       <c r="AO75" s="11">
-        <v>0</v>
+        <v>-3845</v>
       </c>
       <c r="AP75" s="11">
         <v>0</v>
       </c>
       <c r="AQ75" s="11">
-        <v>-3845</v>
+        <v>0</v>
       </c>
       <c r="AR75" s="11">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>73</v>
       </c>
@@ -9888,82 +9888,82 @@
         <v>0</v>
       </c>
       <c r="AD76" s="17">
-        <v>0</v>
+        <v>217814</v>
       </c>
       <c r="AE76" s="17">
-        <v>0</v>
+        <v>274930</v>
       </c>
       <c r="AF76" s="17">
-        <v>217814</v>
+        <v>192719</v>
       </c>
       <c r="AG76" s="17">
-        <v>274930</v>
+        <v>339036</v>
       </c>
       <c r="AH76" s="17">
-        <v>192719</v>
+        <v>321790</v>
       </c>
       <c r="AI76" s="17">
-        <v>339036</v>
+        <v>330001</v>
       </c>
       <c r="AJ76" s="17">
-        <v>321790</v>
+        <v>294852</v>
       </c>
       <c r="AK76" s="17">
-        <v>330001</v>
+        <v>276611</v>
       </c>
       <c r="AL76" s="17">
-        <v>294852</v>
+        <v>213060</v>
       </c>
       <c r="AM76" s="17">
-        <v>276611</v>
+        <v>321176</v>
       </c>
       <c r="AN76" s="17">
-        <v>213060</v>
+        <v>367384</v>
       </c>
       <c r="AO76" s="17">
-        <v>321176</v>
+        <v>414809</v>
       </c>
       <c r="AP76" s="17">
-        <v>367384</v>
+        <v>427931</v>
       </c>
       <c r="AQ76" s="17">
-        <v>414809</v>
+        <v>268414</v>
       </c>
       <c r="AR76" s="17">
-        <v>427931</v>
+        <v>431050</v>
       </c>
       <c r="AS76" s="17">
-        <v>271048</v>
+        <v>486317</v>
       </c>
       <c r="AT76" s="17">
-        <v>431050</v>
+        <v>711929</v>
       </c>
       <c r="AU76" s="17">
-        <v>486317</v>
+        <v>717744</v>
       </c>
       <c r="AV76" s="17">
-        <v>712094</v>
+        <v>528757</v>
       </c>
       <c r="AW76" s="17">
-        <v>717744</v>
+        <v>376924</v>
       </c>
       <c r="AX76" s="17">
-        <v>528757</v>
+        <v>546447</v>
       </c>
       <c r="AY76" s="17">
-        <v>376924</v>
+        <v>635975</v>
       </c>
       <c r="AZ76" s="17">
-        <v>546029</v>
+        <v>749931</v>
       </c>
       <c r="BA76" s="17">
-        <v>635975</v>
+        <v>388289</v>
       </c>
       <c r="BB76" s="17">
-        <v>749931</v>
+        <v>649353</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10018,7 +10018,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10073,7 +10073,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10128,7 +10128,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>88</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10340,7 +10340,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>89</v>
       </c>
@@ -10397,7 +10397,7 @@
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>56</v>
       </c>
@@ -10513,14 +10513,14 @@
       <c r="AN83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO83" s="11" t="s">
-        <v>58</v>
+      <c r="AO83" s="11">
+        <v>11627723</v>
       </c>
       <c r="AP83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ83" s="11">
-        <v>11627723</v>
+      <c r="AQ83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR83" s="11" t="s">
         <v>58</v>
@@ -10556,7 +10556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>59</v>
       </c>
@@ -10639,45 +10639,45 @@
       <c r="AC84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE84" s="13" t="s">
-        <v>58</v>
+      <c r="AD84" s="13">
+        <v>2733691</v>
+      </c>
+      <c r="AE84" s="13">
+        <v>2840968</v>
       </c>
       <c r="AF84" s="13">
-        <v>2733691</v>
+        <v>2970814</v>
       </c>
       <c r="AG84" s="13">
-        <v>2840968</v>
+        <v>3927773</v>
       </c>
       <c r="AH84" s="13">
-        <v>2970814</v>
+        <v>3867363</v>
       </c>
       <c r="AI84" s="13">
-        <v>3927773</v>
+        <v>3931861</v>
       </c>
       <c r="AJ84" s="13">
-        <v>3867363</v>
+        <v>4123705</v>
       </c>
       <c r="AK84" s="13">
-        <v>3931861</v>
+        <v>4046844</v>
       </c>
       <c r="AL84" s="13">
-        <v>4123705</v>
+        <v>4375413</v>
       </c>
       <c r="AM84" s="13">
-        <v>4046844</v>
+        <v>4157583</v>
       </c>
       <c r="AN84" s="13">
-        <v>4375413</v>
-      </c>
-      <c r="AO84" s="13">
-        <v>4157583</v>
-      </c>
-      <c r="AP84" s="13">
         <v>3548780</v>
       </c>
+      <c r="AO84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ84" s="13" t="s">
         <v>58</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>61</v>
       </c>
@@ -10819,62 +10819,62 @@
       <c r="AJ85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL85" s="11" t="s">
-        <v>58</v>
+      <c r="AK85" s="11">
+        <v>4711667</v>
+      </c>
+      <c r="AL85" s="11">
+        <v>4436514</v>
       </c>
       <c r="AM85" s="11">
-        <v>4711667</v>
+        <v>4349253</v>
       </c>
       <c r="AN85" s="11">
-        <v>4436514</v>
+        <v>4353675</v>
       </c>
       <c r="AO85" s="11">
-        <v>4349253</v>
+        <v>4285762</v>
       </c>
       <c r="AP85" s="11">
-        <v>4353675</v>
+        <v>4581665</v>
       </c>
       <c r="AQ85" s="11">
-        <v>4285762</v>
+        <v>4955093</v>
       </c>
       <c r="AR85" s="11">
-        <v>4581665</v>
+        <v>5240928</v>
       </c>
       <c r="AS85" s="11">
-        <v>4963447</v>
+        <v>5186221</v>
       </c>
       <c r="AT85" s="11">
-        <v>5240928</v>
+        <v>5346979</v>
       </c>
       <c r="AU85" s="11">
-        <v>5186221</v>
+        <v>5575887</v>
       </c>
       <c r="AV85" s="11">
-        <v>5346979</v>
+        <v>5411245</v>
       </c>
       <c r="AW85" s="11">
-        <v>5575887</v>
+        <v>5550369</v>
       </c>
       <c r="AX85" s="11">
-        <v>5411245</v>
+        <v>5316971</v>
       </c>
       <c r="AY85" s="11">
-        <v>5550369</v>
+        <v>5366441</v>
       </c>
       <c r="AZ85" s="11">
-        <v>5315890</v>
+        <v>5523909</v>
       </c>
       <c r="BA85" s="11">
-        <v>5366441</v>
+        <v>5462576</v>
       </c>
       <c r="BB85" s="11">
-        <v>5523909</v>
+        <v>5465771</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>91</v>
       </c>
@@ -10931,7 +10931,7 @@
       <c r="BA86" s="9"/>
       <c r="BB86" s="9"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>64</v>
       </c>
@@ -11047,50 +11047,50 @@
       <c r="AN87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO87" s="11" t="s">
-        <v>58</v>
+      <c r="AO87" s="11">
+        <v>4498314</v>
       </c>
       <c r="AP87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ87" s="11">
-        <v>4498314</v>
-      </c>
-      <c r="AR87" s="11" t="s">
-        <v>58</v>
+      <c r="AQ87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR87" s="11">
+        <v>5363461</v>
       </c>
       <c r="AS87" s="11">
-        <v>3958763</v>
+        <v>6074421</v>
       </c>
       <c r="AT87" s="11">
-        <v>5363461</v>
+        <v>6212253</v>
       </c>
       <c r="AU87" s="11">
-        <v>6074421</v>
+        <v>6838221</v>
       </c>
       <c r="AV87" s="11">
-        <v>6212977</v>
+        <v>7023774</v>
       </c>
       <c r="AW87" s="11">
-        <v>6838221</v>
+        <v>6397246</v>
       </c>
       <c r="AX87" s="11">
-        <v>7023774</v>
+        <v>7307612</v>
       </c>
       <c r="AY87" s="11">
-        <v>6397246</v>
+        <v>8380722</v>
       </c>
       <c r="AZ87" s="11">
-        <v>7307612</v>
+        <v>8745469</v>
       </c>
       <c r="BA87" s="11">
-        <v>8380722</v>
+        <v>7316960</v>
       </c>
       <c r="BB87" s="11">
-        <v>8745469</v>
+        <v>9900719</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>56</v>
       </c>
@@ -11233,23 +11233,23 @@
       <c r="AW88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX88" s="13" t="s">
-        <v>58</v>
+      <c r="AX88" s="13">
+        <v>9425532</v>
       </c>
       <c r="AY88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ88" s="13">
-        <v>9425532</v>
-      </c>
-      <c r="BA88" s="13">
-        <v>0</v>
+      <c r="AZ88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB88" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>65</v>
       </c>
@@ -11332,45 +11332,45 @@
       <c r="AC89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE89" s="11" t="s">
-        <v>58</v>
+      <c r="AD89" s="11">
+        <v>2366955</v>
+      </c>
+      <c r="AE89" s="11">
+        <v>2555052</v>
       </c>
       <c r="AF89" s="11">
-        <v>2366955</v>
+        <v>2789933</v>
       </c>
       <c r="AG89" s="11">
-        <v>2555052</v>
+        <v>2653770</v>
       </c>
       <c r="AH89" s="11">
-        <v>2789933</v>
+        <v>2615482</v>
       </c>
       <c r="AI89" s="11">
-        <v>2653770</v>
+        <v>3625812</v>
       </c>
       <c r="AJ89" s="11">
-        <v>2615482</v>
+        <v>3987388</v>
       </c>
       <c r="AK89" s="11">
-        <v>3625812</v>
+        <v>4479026</v>
       </c>
       <c r="AL89" s="11">
-        <v>3987388</v>
+        <v>3973231</v>
       </c>
       <c r="AM89" s="11">
-        <v>4479026</v>
+        <v>4285125</v>
       </c>
       <c r="AN89" s="11">
-        <v>3973231</v>
-      </c>
-      <c r="AO89" s="11">
-        <v>4285125</v>
-      </c>
-      <c r="AP89" s="11">
         <v>4868465</v>
       </c>
+      <c r="AO89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP89" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ89" s="11" t="s">
         <v>58</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>67</v>
       </c>
@@ -11527,15 +11527,15 @@
       <c r="AO90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR90" s="13">
+      <c r="AP90" s="13">
         <v>5246825</v>
       </c>
+      <c r="AQ90" s="13">
+        <v>3871363</v>
+      </c>
+      <c r="AR90" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS90" s="13" t="s">
         <v>58</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>92</v>
       </c>
@@ -11624,7 +11624,7 @@
       <c r="BA91" s="9"/>
       <c r="BB91" s="9"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>70</v>
       </c>
@@ -11740,14 +11740,14 @@
       <c r="AN92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO92" s="11" t="s">
-        <v>58</v>
+      <c r="AO92" s="11">
+        <v>0</v>
       </c>
       <c r="AP92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ92" s="11">
-        <v>0</v>
+      <c r="AQ92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR92" s="11" t="s">
         <v>58</v>
